--- a/disagreement_matrix/engineering_version/rsj_matrix_records/Lymphography_withoutdupl_catremoved_odi.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/Lymphography_withoutdupl_catremoved_odi.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,4300 +394,3853 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.956343865405594E-06</v>
+        <v>8.558476772681705E-06</v>
       </c>
       <c r="C2">
-        <v>7.333307656420722E-06</v>
+        <v>7.255709588246081E-06</v>
       </c>
       <c r="D2">
-        <v>0.3087272941951721</v>
+        <v>0.3054985733921812</v>
       </c>
       <c r="E2">
-        <v>0.3087272941951721</v>
+        <v>0.3054985733921812</v>
       </c>
       <c r="F2">
-        <v>0.3824914764048609</v>
+        <v>0.3889681808308997</v>
       </c>
       <c r="G2">
-        <v>3.553079506127825E-06</v>
+        <v>3.843809317025896E-06</v>
       </c>
       <c r="H2">
-        <v>1.521342541143375E-05</v>
-      </c>
-      <c r="I2">
-        <v>1.887904835556672E-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1.501438905979875E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1722646641140944</v>
+        <v>0.2149356107859965</v>
       </c>
       <c r="C3">
-        <v>0.1984986637457745</v>
+        <v>0.2476681771588284</v>
       </c>
       <c r="D3">
-        <v>0.06695341082330634</v>
+        <v>0.08326568624992972</v>
       </c>
       <c r="E3">
-        <v>0.06695341082330634</v>
+        <v>0.08326568624992972</v>
       </c>
       <c r="F3">
-        <v>0.001604338175703853</v>
+        <v>0.002143269211511066</v>
       </c>
       <c r="G3">
-        <v>0.06238498633396519</v>
+        <v>0.08475004009845113</v>
       </c>
       <c r="H3">
-        <v>0.2275944601983219</v>
-      </c>
-      <c r="I3">
-        <v>0.2037460657855275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.2839715302453534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2649369538939152</v>
+        <v>0.3196520593766871</v>
       </c>
       <c r="C4">
-        <v>0.2378861726377523</v>
+        <v>0.3069568437904194</v>
       </c>
       <c r="D4">
-        <v>0.03899012769668431</v>
+        <v>0.04355427871205671</v>
       </c>
       <c r="E4">
-        <v>0.00354461667629945</v>
+        <v>0.004839432858943438</v>
       </c>
       <c r="F4">
-        <v>0.002077037025998247</v>
+        <v>0.002703681944461322</v>
       </c>
       <c r="G4">
-        <v>0.1236499201517929</v>
+        <v>0.1590676174784401</v>
       </c>
       <c r="H4">
-        <v>0.1236822091292521</v>
-      </c>
-      <c r="I4">
-        <v>0.2052329627883055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.1632260858389919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0001680279138055691</v>
+        <v>0.0001472316582675416</v>
       </c>
       <c r="C5">
-        <v>0.0002730651115374228</v>
+        <v>0.000239275855449403</v>
       </c>
       <c r="D5">
-        <v>0.390955835711499</v>
+        <v>0.3914879613370049</v>
       </c>
       <c r="E5">
-        <v>0.390955835711499</v>
+        <v>0.3914879613370049</v>
       </c>
       <c r="F5">
-        <v>0.21131747486452</v>
+        <v>0.2116037457555486</v>
       </c>
       <c r="G5">
-        <v>1.012831617155583E-06</v>
+        <v>9.0163316812452E-07</v>
       </c>
       <c r="H5">
-        <v>0.005734777833456531</v>
-      </c>
-      <c r="I5">
-        <v>0.0005939700220653988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.005032922423556624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1738399221664463</v>
+        <v>0.2170957478425088</v>
       </c>
       <c r="C6">
-        <v>0.2003138161454537</v>
+        <v>0.2501572817108532</v>
       </c>
       <c r="D6">
-        <v>0.06691910277901705</v>
+        <v>0.08329508537148847</v>
       </c>
       <c r="E6">
-        <v>0.06691910277901705</v>
+        <v>0.08329508537148847</v>
       </c>
       <c r="F6">
-        <v>0.001630027598909853</v>
+        <v>0.002180863154008649</v>
       </c>
       <c r="G6">
-        <v>0.06845178261089574</v>
+        <v>0.09383322652093702</v>
       </c>
       <c r="H6">
-        <v>0.2163170433596184</v>
-      </c>
-      <c r="I6">
-        <v>0.2056092025606418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.2701427100287153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4418011452512275</v>
+        <v>0.4735408010208842</v>
       </c>
       <c r="C7">
-        <v>0.03625330229478631</v>
+        <v>0.02855674266584661</v>
       </c>
       <c r="D7">
-        <v>0.0380089266701573</v>
+        <v>0.03361859379704204</v>
       </c>
       <c r="E7">
-        <v>0.0380089266701573</v>
+        <v>0.03361859379704204</v>
       </c>
       <c r="F7">
-        <v>0.003045422655327924</v>
+        <v>0.002739533422616515</v>
       </c>
       <c r="G7">
-        <v>0.04908373175784263</v>
+        <v>0.04588423766632667</v>
       </c>
       <c r="H7">
-        <v>0.3484852960646267</v>
-      </c>
-      <c r="I7">
-        <v>0.04531324863587439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.382041497630242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.216224618865783</v>
+        <v>0.2945176764747932</v>
       </c>
       <c r="C8">
-        <v>0.2239780675207823</v>
+        <v>0.2959899774686325</v>
       </c>
       <c r="D8">
-        <v>0.07209510901665966</v>
+        <v>0.0798376953766331</v>
       </c>
       <c r="E8">
-        <v>0.008123403401082335</v>
+        <v>0.01103731337632778</v>
       </c>
       <c r="F8">
-        <v>0.002769674195099017</v>
+        <v>0.003412725194722257</v>
       </c>
       <c r="G8">
-        <v>0.1343759785450092</v>
+        <v>0.1620617823856604</v>
       </c>
       <c r="H8">
-        <v>0.1157343638324266</v>
-      </c>
-      <c r="I8">
-        <v>0.2266987846231579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.1531428297232306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0001680279138055691</v>
+        <v>0.0001472316582675416</v>
       </c>
       <c r="C9">
-        <v>0.0002730651115374228</v>
+        <v>0.000239275855449403</v>
       </c>
       <c r="D9">
-        <v>0.390955835711499</v>
+        <v>0.3914879613370049</v>
       </c>
       <c r="E9">
-        <v>0.390955835711499</v>
+        <v>0.3914879613370049</v>
       </c>
       <c r="F9">
-        <v>0.21131747486452</v>
+        <v>0.2116037457555486</v>
       </c>
       <c r="G9">
-        <v>1.012831617155583E-06</v>
+        <v>9.0163316812452E-07</v>
       </c>
       <c r="H9">
-        <v>0.005734777833456531</v>
-      </c>
-      <c r="I9">
-        <v>0.0005939700220653988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.005032922423556624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1748213584483989</v>
+        <v>0.2189364129895325</v>
       </c>
       <c r="C10">
-        <v>0.2014447142987174</v>
+        <v>0.2522782619432868</v>
       </c>
       <c r="D10">
-        <v>0.06729690342805415</v>
+        <v>0.08400130998475396</v>
       </c>
       <c r="E10">
-        <v>0.06729690342805415</v>
+        <v>0.08400130998475396</v>
       </c>
       <c r="F10">
-        <v>0.001681616386234829</v>
+        <v>0.002261282584635334</v>
       </c>
       <c r="G10">
-        <v>0.0631502176424153</v>
+        <v>0.08608828406269742</v>
       </c>
       <c r="H10">
-        <v>0.217538289849562</v>
-      </c>
-      <c r="I10">
-        <v>0.2067699965185633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.2724331384503401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0001496370297726397</v>
+        <v>0.0001310973403110906</v>
       </c>
       <c r="C11">
-        <v>0.0002431777631440201</v>
+        <v>0.0002130549137270238</v>
       </c>
       <c r="D11">
-        <v>0.393860590188033</v>
+        <v>0.3943380193554676</v>
       </c>
       <c r="E11">
-        <v>0.393860590188033</v>
+        <v>0.3943380193554676</v>
       </c>
       <c r="F11">
-        <v>0.2062488419384177</v>
+        <v>0.2064974415403253</v>
       </c>
       <c r="G11">
-        <v>1.105110104563217E-06</v>
+        <v>9.757105963149615E-07</v>
       </c>
       <c r="H11">
-        <v>0.005107098588377328</v>
-      </c>
-      <c r="I11">
-        <v>0.000528959194117601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.004481391784105041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0001747291131907292</v>
+        <v>0.0001529373598685976</v>
       </c>
       <c r="C12">
-        <v>0.0001516456555925823</v>
+        <v>0.0001327321950804741</v>
       </c>
       <c r="D12">
-        <v>0.3365998935531528</v>
+        <v>0.3366946630740586</v>
       </c>
       <c r="E12">
-        <v>0.3365998935531528</v>
+        <v>0.3366946630740586</v>
       </c>
       <c r="F12">
-        <v>0.3261033448188265</v>
+        <v>0.3261950131543894</v>
       </c>
       <c r="G12">
-        <v>5.952410911867729E-06</v>
+        <v>5.142500440468799E-06</v>
       </c>
       <c r="H12">
-        <v>0.0001426390063027592</v>
-      </c>
-      <c r="I12">
-        <v>0.0002219018888700214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.0001248486421038234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0001747291131907292</v>
+        <v>0.0001529373598685976</v>
       </c>
       <c r="C13">
-        <v>0.0001516456555925823</v>
+        <v>0.0001327321950804741</v>
       </c>
       <c r="D13">
-        <v>0.3365998935531528</v>
+        <v>0.3366946630740586</v>
       </c>
       <c r="E13">
-        <v>0.3365998935531528</v>
+        <v>0.3366946630740586</v>
       </c>
       <c r="F13">
-        <v>0.3261033448188265</v>
+        <v>0.3261950131543894</v>
       </c>
       <c r="G13">
-        <v>5.952410911867729E-06</v>
+        <v>5.142500440468799E-06</v>
       </c>
       <c r="H13">
-        <v>0.0001426390063027592</v>
-      </c>
-      <c r="I13">
-        <v>0.0002219018888700214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.0001248486421038234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0001747291131907292</v>
+        <v>0.0001529373598685976</v>
       </c>
       <c r="C14">
-        <v>0.0001516456555925823</v>
+        <v>0.0001327321950804741</v>
       </c>
       <c r="D14">
-        <v>0.3365998935531528</v>
+        <v>0.3366946630740586</v>
       </c>
       <c r="E14">
-        <v>0.3365998935531528</v>
+        <v>0.3366946630740586</v>
       </c>
       <c r="F14">
-        <v>0.3261033448188265</v>
+        <v>0.3261950131543894</v>
       </c>
       <c r="G14">
-        <v>5.952410911867729E-06</v>
+        <v>5.142500440468799E-06</v>
       </c>
       <c r="H14">
-        <v>0.0001426390063027592</v>
-      </c>
-      <c r="I14">
-        <v>0.0002219018888700214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.0001248486421038234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.38270868223791E-06</v>
+        <v>2.526066210042557E-06</v>
       </c>
       <c r="C15">
-        <v>5.626786393856665E-06</v>
+        <v>5.475682941703849E-06</v>
       </c>
       <c r="D15">
-        <v>0.3018888771498013</v>
+        <v>0.2961577340686377</v>
       </c>
       <c r="E15">
-        <v>0.3018888771498013</v>
+        <v>0.2961577340686377</v>
       </c>
       <c r="F15">
-        <v>0.3962005087222825</v>
+        <v>0.4076674696733771</v>
       </c>
       <c r="G15">
-        <v>6.467275359016415E-06</v>
+        <v>6.555484215575488E-06</v>
       </c>
       <c r="H15">
-        <v>2.341292398222804E-06</v>
-      </c>
-      <c r="I15">
-        <v>4.918915281410024E-06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>2.504955980178946E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.511447600591783E-06</v>
+        <v>2.616872864782299E-06</v>
       </c>
       <c r="C16">
-        <v>5.539915088066141E-06</v>
+        <v>5.383440537643284E-06</v>
       </c>
       <c r="D16">
-        <v>0.3018888985660159</v>
+        <v>0.296157733100977</v>
       </c>
       <c r="E16">
-        <v>0.3018888985660159</v>
+        <v>0.296157733100977</v>
       </c>
       <c r="F16">
-        <v>0.3962005368290321</v>
+        <v>0.4076674683413715</v>
       </c>
       <c r="G16">
-        <v>6.46727581780959E-06</v>
+        <v>6.555484194156212E-06</v>
       </c>
       <c r="H16">
-        <v>3.09216371813501E-06</v>
-      </c>
-      <c r="I16">
-        <v>4.055236711426498E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>2.509659077955666E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0001747291131907292</v>
+        <v>0.0001529373598685976</v>
       </c>
       <c r="C17">
-        <v>0.0001516456555925823</v>
+        <v>0.0001327321950804741</v>
       </c>
       <c r="D17">
-        <v>0.3365998935531528</v>
+        <v>0.3366946630740586</v>
       </c>
       <c r="E17">
-        <v>0.3365998935531528</v>
+        <v>0.3366946630740586</v>
       </c>
       <c r="F17">
-        <v>0.3261033448188265</v>
+        <v>0.3261950131543894</v>
       </c>
       <c r="G17">
-        <v>5.952410911867729E-06</v>
+        <v>5.142500440468799E-06</v>
       </c>
       <c r="H17">
-        <v>0.0001426390063027592</v>
-      </c>
-      <c r="I17">
-        <v>0.0002219018888700214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.0001248486421038234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.464447876754432</v>
+        <v>0.4988859688776762</v>
       </c>
       <c r="C18">
-        <v>0.0417380586563451</v>
+        <v>0.02815005600113764</v>
       </c>
       <c r="D18">
-        <v>0.03115788184939366</v>
+        <v>0.02699084531600509</v>
       </c>
       <c r="E18">
-        <v>0.03115788184939366</v>
+        <v>0.02699084531600509</v>
       </c>
       <c r="F18">
-        <v>0.002786187909792475</v>
+        <v>0.002487373477348488</v>
       </c>
       <c r="G18">
-        <v>0.05049582612723</v>
+        <v>0.04813882615269618</v>
       </c>
       <c r="H18">
-        <v>0.3379552955319367</v>
-      </c>
-      <c r="I18">
-        <v>0.04026099132147642</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.3683560848591313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.222270515485787</v>
+        <v>0.2665508776047018</v>
       </c>
       <c r="C19">
-        <v>0.333391229706628</v>
+        <v>0.3839731575826156</v>
       </c>
       <c r="D19">
-        <v>0.04767798833543813</v>
+        <v>0.06669770523155411</v>
       </c>
       <c r="E19">
-        <v>0.01111443725705408</v>
+        <v>0.01458351493739759</v>
       </c>
       <c r="F19">
-        <v>0.012979970408448</v>
+        <v>0.01413007267851789</v>
       </c>
       <c r="G19">
-        <v>0.0480559873794074</v>
+        <v>0.05924071634769904</v>
       </c>
       <c r="H19">
-        <v>0.163335014882332</v>
-      </c>
-      <c r="I19">
-        <v>0.1611748565449053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.1948239556175139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1715136116495664</v>
+        <v>0.2079183917225707</v>
       </c>
       <c r="C20">
-        <v>0.2962403307394734</v>
+        <v>0.3578810172445875</v>
       </c>
       <c r="D20">
-        <v>0.07895374166223348</v>
+        <v>0.08535098707704922</v>
       </c>
       <c r="E20">
-        <v>0.01507186165719412</v>
+        <v>0.02197754318556042</v>
       </c>
       <c r="F20">
-        <v>0.001959637817053967</v>
+        <v>0.002324368821378997</v>
       </c>
       <c r="G20">
-        <v>0.1201116811218639</v>
+        <v>0.1533597867113522</v>
       </c>
       <c r="H20">
-        <v>0.1328579255863083</v>
-      </c>
-      <c r="I20">
-        <v>0.1832912097663065</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.1711879052375009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4615924066065794</v>
+        <v>0.4953937906864951</v>
       </c>
       <c r="C21">
-        <v>0.04210866091323134</v>
+        <v>0.02840162007973254</v>
       </c>
       <c r="D21">
-        <v>0.03102331338727765</v>
+        <v>0.02685273982127609</v>
       </c>
       <c r="E21">
-        <v>0.03102331338727765</v>
+        <v>0.02685273982127609</v>
       </c>
       <c r="F21">
-        <v>0.002686143119223343</v>
+        <v>0.002390714088891591</v>
       </c>
       <c r="G21">
-        <v>0.05002695672993968</v>
+        <v>0.04762874686897812</v>
       </c>
       <c r="H21">
-        <v>0.3444639602526976</v>
-      </c>
-      <c r="I21">
-        <v>0.03707524560377352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.3724796486333503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2311867076744056</v>
+        <v>0.2593701589952664</v>
       </c>
       <c r="C22">
-        <v>0.2355516820289658</v>
+        <v>0.2551941035535794</v>
       </c>
       <c r="D22">
-        <v>0.06851974759578533</v>
+        <v>0.09172143330133252</v>
       </c>
       <c r="E22">
-        <v>0.0342599126041653</v>
+        <v>0.04586078381203249</v>
       </c>
       <c r="F22">
-        <v>0.00349547906168172</v>
+        <v>0.004024007932856457</v>
       </c>
       <c r="G22">
-        <v>0.111014454881521</v>
+        <v>0.123593212215218</v>
       </c>
       <c r="H22">
-        <v>0.1820011857180236</v>
-      </c>
-      <c r="I22">
-        <v>0.1339708304354518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.2202363001897147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0001851963520963958</v>
+        <v>0.0001621020205075402</v>
       </c>
       <c r="C23">
-        <v>0.0001607300678986262</v>
+        <v>0.0001406860758380578</v>
       </c>
       <c r="D23">
-        <v>0.3567640862117449</v>
+        <v>0.3568708471579743</v>
       </c>
       <c r="E23">
-        <v>0.3567640862117449</v>
+        <v>0.3568708471579743</v>
       </c>
       <c r="F23">
-        <v>0.2857331094015945</v>
+        <v>0.2858176272180558</v>
       </c>
       <c r="G23">
-        <v>6.412846774474383E-06</v>
+        <v>5.560262996877098E-06</v>
       </c>
       <c r="H23">
-        <v>0.0001511838705727914</v>
-      </c>
-      <c r="I23">
-        <v>0.0002351950375732133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.0001323301066530835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0001001347699932514</v>
+        <v>8.76353133255704E-05</v>
       </c>
       <c r="C24">
-        <v>8.690596870747891E-05</v>
+        <v>7.605746244254653E-05</v>
       </c>
       <c r="D24">
-        <v>0.3568830270113498</v>
+        <v>0.3569413384676613</v>
       </c>
       <c r="E24">
-        <v>0.3568830270113498</v>
+        <v>0.3569413384676613</v>
       </c>
       <c r="F24">
-        <v>0.2858283693389573</v>
+        <v>0.2858740836617095</v>
       </c>
       <c r="G24">
-        <v>9.622696658324035E-06</v>
+        <v>8.006554333201546E-06</v>
       </c>
       <c r="H24">
-        <v>8.174438608065098E-05</v>
-      </c>
-      <c r="I24">
-        <v>0.0001271688169035279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>7.154007286670245E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0001001347699932514</v>
+        <v>8.76353133255704E-05</v>
       </c>
       <c r="C25">
-        <v>8.690596870747891E-05</v>
+        <v>7.605746244254653E-05</v>
       </c>
       <c r="D25">
-        <v>0.3568830270113498</v>
+        <v>0.3569413384676613</v>
       </c>
       <c r="E25">
-        <v>0.3568830270113498</v>
+        <v>0.3569413384676613</v>
       </c>
       <c r="F25">
-        <v>0.2858283693389573</v>
+        <v>0.2858740836617095</v>
       </c>
       <c r="G25">
-        <v>9.622696658324035E-06</v>
+        <v>8.006554333201546E-06</v>
       </c>
       <c r="H25">
-        <v>8.174438608065098E-05</v>
-      </c>
-      <c r="I25">
-        <v>0.0001271688169035279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>7.154007286670245E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.015818158849464E-06</v>
+        <v>1.109938954680834E-06</v>
       </c>
       <c r="C26">
-        <v>3.909483616172893E-06</v>
+        <v>3.861799800706117E-06</v>
       </c>
       <c r="D26">
-        <v>0.3333268489310104</v>
+        <v>0.3333290908355249</v>
       </c>
       <c r="E26">
-        <v>0.3333268489310104</v>
+        <v>0.3333290908355249</v>
       </c>
       <c r="F26">
-        <v>0.3333268489310104</v>
+        <v>0.3333290908355249</v>
       </c>
       <c r="G26">
-        <v>5.845381884570637E-06</v>
+        <v>5.173261249892736E-06</v>
       </c>
       <c r="H26">
-        <v>2.652055500011915E-06</v>
-      </c>
-      <c r="I26">
-        <v>6.030467809178194E-06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>2.58249342002429E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0001001347699932514</v>
+        <v>8.76353133255704E-05</v>
       </c>
       <c r="C27">
-        <v>8.690596870747891E-05</v>
+        <v>7.605746244254653E-05</v>
       </c>
       <c r="D27">
-        <v>0.3568830270113498</v>
+        <v>0.3569413384676613</v>
       </c>
       <c r="E27">
-        <v>0.3568830270113498</v>
+        <v>0.3569413384676613</v>
       </c>
       <c r="F27">
-        <v>0.2858283693389573</v>
+        <v>0.2858740836617095</v>
       </c>
       <c r="G27">
-        <v>9.622696658324035E-06</v>
+        <v>8.006554333201546E-06</v>
       </c>
       <c r="H27">
-        <v>8.174438608065098E-05</v>
-      </c>
-      <c r="I27">
-        <v>0.0001271688169035279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>7.154007286670245E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1772538997240732</v>
+        <v>0.2113987607816902</v>
       </c>
       <c r="C28">
-        <v>0.2042477046578312</v>
+        <v>0.243592699901954</v>
       </c>
       <c r="D28">
-        <v>0.06592533105294664</v>
+        <v>0.078356719698364</v>
       </c>
       <c r="E28">
-        <v>0.06592533105294664</v>
+        <v>0.078356719698364</v>
       </c>
       <c r="F28">
-        <v>0.001738274263841126</v>
+        <v>0.002183430018073683</v>
       </c>
       <c r="G28">
-        <v>0.09109218940919142</v>
+        <v>0.1230579956503821</v>
       </c>
       <c r="H28">
-        <v>0.220565213297562</v>
-      </c>
-      <c r="I28">
-        <v>0.1732520565416077</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.2630536742511719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.760818777312858E-05</v>
+        <v>5.041614744509404E-05</v>
       </c>
       <c r="C29">
-        <v>8.690952071621063E-05</v>
+        <v>7.606016346337282E-05</v>
       </c>
       <c r="D29">
-        <v>0.3568976134850639</v>
+        <v>0.3569540144886328</v>
       </c>
       <c r="E29">
-        <v>0.3568976134850639</v>
+        <v>0.3569540144886328</v>
       </c>
       <c r="F29">
-        <v>0.2858400516765316</v>
+        <v>0.2858842358785842</v>
       </c>
       <c r="G29">
-        <v>1.13310565728668E-05</v>
+        <v>9.75923824436629E-06</v>
       </c>
       <c r="H29">
-        <v>8.169857374841727E-05</v>
-      </c>
-      <c r="I29">
-        <v>0.0001271740145298217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>7.149959499726751E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.4736342827165373</v>
+        <v>0.5006854366088395</v>
       </c>
       <c r="C30">
-        <v>0.04226662528665555</v>
+        <v>0.02833660658076842</v>
       </c>
       <c r="D30">
-        <v>0.03012998587210699</v>
+        <v>0.02679127182868788</v>
       </c>
       <c r="E30">
-        <v>0.03012998587210699</v>
+        <v>0.02679127182868788</v>
       </c>
       <c r="F30">
-        <v>0.002608794657821647</v>
+        <v>0.002385241559947632</v>
       </c>
       <c r="G30">
-        <v>0.04472423170371339</v>
+        <v>0.04338315760459405</v>
       </c>
       <c r="H30">
-        <v>0.3499862504145882</v>
-      </c>
-      <c r="I30">
-        <v>0.02651984347646994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.3716270139884746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.583611629513661E-06</v>
+        <v>2.683351265892024E-06</v>
       </c>
       <c r="C31">
-        <v>5.635194493498596E-06</v>
+        <v>5.493811290836153E-06</v>
       </c>
       <c r="D31">
-        <v>0.3083499256205068</v>
+        <v>0.3036812520452081</v>
       </c>
       <c r="E31">
-        <v>0.3083499256205068</v>
+        <v>0.3036812520452081</v>
       </c>
       <c r="F31">
-        <v>0.3832777870565268</v>
+        <v>0.3926195946667695</v>
       </c>
       <c r="G31">
-        <v>6.950583713394145E-06</v>
+        <v>7.145992753642555E-06</v>
       </c>
       <c r="H31">
-        <v>3.163887951572053E-06</v>
-      </c>
-      <c r="I31">
-        <v>4.028424671652779E-06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>2.57808750393447E-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1850881454833035</v>
+        <v>0.2231280003819274</v>
       </c>
       <c r="C32">
-        <v>0.2941265612076308</v>
+        <v>0.3420937401910029</v>
       </c>
       <c r="D32">
-        <v>0.07747877969078007</v>
+        <v>0.0830177074899507</v>
       </c>
       <c r="E32">
-        <v>0.0148211753397691</v>
+        <v>0.02142243280566285</v>
       </c>
       <c r="F32">
-        <v>0.001930637092819105</v>
+        <v>0.002269892411093659</v>
       </c>
       <c r="G32">
-        <v>0.1129169645845039</v>
+        <v>0.1418634826179657</v>
       </c>
       <c r="H32">
-        <v>0.1431795150511919</v>
-      </c>
-      <c r="I32">
-        <v>0.1704582215500017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.1862047441023967</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.3547611385669561</v>
+        <v>0.44558937450699</v>
       </c>
       <c r="C33">
-        <v>0.2210887313921642</v>
+        <v>0.2375378161770707</v>
       </c>
       <c r="D33">
-        <v>0.05460271615688252</v>
+        <v>0.05751458136470999</v>
       </c>
       <c r="E33">
-        <v>0.004877595464856078</v>
+        <v>0.0049483134466416</v>
       </c>
       <c r="F33">
-        <v>0.002929185680636134</v>
+        <v>0.003425031541840725</v>
       </c>
       <c r="G33">
-        <v>0.1163865799092933</v>
+        <v>0.1377685493003866</v>
       </c>
       <c r="H33">
-        <v>0.09305074509604296</v>
-      </c>
-      <c r="I33">
-        <v>0.1523033077331688</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.1132163336623602</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.3348680131763324</v>
+        <v>0.4307505948046311</v>
       </c>
       <c r="C34">
-        <v>0.1110766587428112</v>
+        <v>0.1248731888642695</v>
       </c>
       <c r="D34">
-        <v>0.09810407796072432</v>
+        <v>0.1081491435709565</v>
       </c>
       <c r="E34">
-        <v>0.01213780351413664</v>
+        <v>0.01504855571762575</v>
       </c>
       <c r="F34">
-        <v>0.002037215842398392</v>
+        <v>0.002352706799308447</v>
       </c>
       <c r="G34">
-        <v>0.1059748684477299</v>
+        <v>0.1282999504386608</v>
       </c>
       <c r="H34">
-        <v>0.1499181301548364</v>
-      </c>
-      <c r="I34">
-        <v>0.1858832321610306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.190525859804548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.760818777312858E-05</v>
+        <v>5.041614744509404E-05</v>
       </c>
       <c r="C35">
-        <v>8.690952071621063E-05</v>
+        <v>7.606016346337282E-05</v>
       </c>
       <c r="D35">
-        <v>0.3568976134850639</v>
+        <v>0.3569540144886328</v>
       </c>
       <c r="E35">
-        <v>0.3568976134850639</v>
+        <v>0.3569540144886328</v>
       </c>
       <c r="F35">
-        <v>0.2858400516765316</v>
+        <v>0.2858842358785842</v>
       </c>
       <c r="G35">
-        <v>1.13310565728668E-05</v>
+        <v>9.75923824436629E-06</v>
       </c>
       <c r="H35">
-        <v>8.169857374841727E-05</v>
-      </c>
-      <c r="I35">
-        <v>0.0001271740145298217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>7.149959499726751E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.760818777312858E-05</v>
+        <v>5.041614744509404E-05</v>
       </c>
       <c r="C36">
-        <v>8.690952071621063E-05</v>
+        <v>7.606016346337282E-05</v>
       </c>
       <c r="D36">
-        <v>0.3568976134850639</v>
+        <v>0.3569540144886328</v>
       </c>
       <c r="E36">
-        <v>0.3568976134850639</v>
+        <v>0.3569540144886328</v>
       </c>
       <c r="F36">
-        <v>0.2858400516765316</v>
+        <v>0.2858842358785842</v>
       </c>
       <c r="G36">
-        <v>1.13310565728668E-05</v>
+        <v>9.75923824436629E-06</v>
       </c>
       <c r="H36">
-        <v>8.169857374841727E-05</v>
-      </c>
-      <c r="I36">
-        <v>0.0001271740145298217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>7.149959499726751E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.023611247066378E-06</v>
+        <v>1.119561592155624E-06</v>
       </c>
       <c r="C37">
-        <v>3.93947614036435E-06</v>
+        <v>3.895279749603937E-06</v>
       </c>
       <c r="D37">
-        <v>0.3320481184242829</v>
+        <v>0.3318840787315002</v>
       </c>
       <c r="E37">
-        <v>0.3320481184242829</v>
+        <v>0.3318840787315002</v>
       </c>
       <c r="F37">
-        <v>0.3358840443465042</v>
+        <v>0.3362188939074732</v>
       </c>
       <c r="G37">
-        <v>6.006584211116429E-06</v>
+        <v>5.328905787458773E-06</v>
       </c>
       <c r="H37">
-        <v>2.672401368303098E-06</v>
-      </c>
-      <c r="I37">
-        <v>6.076731963069096E-06</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>2.604882397235268E-06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.891967630591472E-05</v>
+        <v>5.156410618156739E-05</v>
       </c>
       <c r="C38">
-        <v>8.888807349169676E-05</v>
+        <v>7.779202782767117E-05</v>
       </c>
       <c r="D38">
-        <v>0.3536397392824848</v>
+        <v>0.3536968512188077</v>
       </c>
       <c r="E38">
-        <v>0.3536397392824848</v>
+        <v>0.3536968512188077</v>
       </c>
       <c r="F38">
-        <v>0.2923473896865572</v>
+        <v>0.292393723866619</v>
       </c>
       <c r="G38">
-        <v>1.169628764592585E-05</v>
+        <v>1.008994500643934E-05</v>
       </c>
       <c r="H38">
-        <v>8.355849586639805E-05</v>
-      </c>
-      <c r="I38">
-        <v>0.0001300692151631254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>7.312761675003645E-05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6.574416008776929E-05</v>
+        <v>5.753741420808577E-05</v>
       </c>
       <c r="C39">
-        <v>7.318604197396743E-05</v>
+        <v>6.405048331648842E-05</v>
       </c>
       <c r="D39">
-        <v>0.3946007359590794</v>
+        <v>0.394669931075951</v>
       </c>
       <c r="E39">
-        <v>0.3946007359590794</v>
+        <v>0.394669931075951</v>
       </c>
       <c r="F39">
-        <v>0.2104096730528374</v>
+        <v>0.210443927265608</v>
       </c>
       <c r="G39">
-        <v>1.481382423297096E-05</v>
+        <v>1.302379211972372E-05</v>
       </c>
       <c r="H39">
-        <v>9.323681787406922E-05</v>
-      </c>
-      <c r="I39">
-        <v>0.0001418741848351226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>8.159889284575786E-05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.477227818217555E-06</v>
+        <v>2.575521777181917E-06</v>
       </c>
       <c r="C40">
-        <v>5.580189565595391E-06</v>
+        <v>5.529892978876174E-06</v>
       </c>
       <c r="D40">
-        <v>0.3072904690329971</v>
+        <v>0.3023917554865529</v>
       </c>
       <c r="E40">
-        <v>0.3072904690329971</v>
+        <v>0.3023917554865529</v>
       </c>
       <c r="F40">
-        <v>0.3853962752443302</v>
+        <v>0.3951982012084241</v>
       </c>
       <c r="G40">
-        <v>7.084003225433007E-06</v>
+        <v>7.311371950595173E-06</v>
       </c>
       <c r="H40">
-        <v>3.448966090405625E-06</v>
-      </c>
-      <c r="I40">
-        <v>4.196302976030062E-06</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>2.871031763252201E-06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.753395374351988E-05</v>
+        <v>3.37712454519357E-05</v>
       </c>
       <c r="C41">
-        <v>4.611515098064299E-05</v>
+        <v>4.149232814665711E-05</v>
       </c>
       <c r="D41">
-        <v>0.3209574585446994</v>
+        <v>0.3300318375660953</v>
       </c>
       <c r="E41">
-        <v>0.3209574585446994</v>
+        <v>0.3300318375660953</v>
       </c>
       <c r="F41">
-        <v>0.3578231908683834</v>
+        <v>0.3397831043416337</v>
       </c>
       <c r="G41">
-        <v>1.204915993272577E-05</v>
+        <v>1.089078672305564E-05</v>
       </c>
       <c r="H41">
-        <v>7.453747076360436E-05</v>
-      </c>
-      <c r="I41">
-        <v>9.165630679724041E-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>6.70661658539571E-05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.3178014170636834</v>
+        <v>0.3836076072934382</v>
       </c>
       <c r="C42">
-        <v>0.1290457942455837</v>
+        <v>0.1676778036809314</v>
       </c>
       <c r="D42">
-        <v>0.1113235824802609</v>
+        <v>0.1242246641022554</v>
       </c>
       <c r="E42">
-        <v>0.00950891399321461</v>
+        <v>0.01290422212508429</v>
       </c>
       <c r="F42">
-        <v>0.005300348751358971</v>
+        <v>0.005841788692094073</v>
       </c>
       <c r="G42">
-        <v>0.08933449226075939</v>
+        <v>0.1142778192010732</v>
       </c>
       <c r="H42">
-        <v>0.1631003904463544</v>
-      </c>
-      <c r="I42">
-        <v>0.1745850607587846</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.1914660949051234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.067717799067812E-06</v>
+        <v>1.174384017982107E-06</v>
       </c>
       <c r="C43">
-        <v>4.109224870403581E-06</v>
+        <v>4.08602288213217E-06</v>
       </c>
       <c r="D43">
-        <v>0.3248108395127175</v>
+        <v>0.3236514574814709</v>
       </c>
       <c r="E43">
-        <v>0.3248108395127175</v>
+        <v>0.3236514574814709</v>
       </c>
       <c r="F43">
-        <v>0.3503570067244377</v>
+        <v>0.3526827807555514</v>
       </c>
       <c r="G43">
-        <v>7.011181293076055E-06</v>
+        <v>6.311436947629348E-06</v>
       </c>
       <c r="H43">
-        <v>2.787552906797401E-06</v>
-      </c>
-      <c r="I43">
-        <v>6.338573257892722E-06</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>2.732437659053583E-06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4415560330509454</v>
+        <v>0.4925523813074791</v>
       </c>
       <c r="C44">
-        <v>0.1803318448529626</v>
+        <v>0.188561042281453</v>
       </c>
       <c r="D44">
-        <v>0.03245903331237071</v>
+        <v>0.03760187651624113</v>
       </c>
       <c r="E44">
-        <v>0.03139923742907497</v>
+        <v>0.03695086158508141</v>
       </c>
       <c r="F44">
-        <v>0.004330169273697845</v>
+        <v>0.003749031484902657</v>
       </c>
       <c r="G44">
-        <v>0.09758116378754156</v>
+        <v>0.09412853974490858</v>
       </c>
       <c r="H44">
-        <v>0.1362609727490271</v>
-      </c>
-      <c r="I44">
-        <v>0.07608154554437993</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.1464562670799339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1021898985511139</v>
+        <v>0.1330263827057779</v>
       </c>
       <c r="C45">
-        <v>0.4882411905161171</v>
+        <v>0.5713790758548798</v>
       </c>
       <c r="D45">
-        <v>0.04914727708940011</v>
+        <v>0.05751573487875312</v>
       </c>
       <c r="E45">
-        <v>0.01824831108958326</v>
+        <v>0.0213554976955744</v>
       </c>
       <c r="F45">
-        <v>0.002113982601086344</v>
+        <v>0.002764207151297395</v>
       </c>
       <c r="G45">
-        <v>0.08325357836410208</v>
+        <v>0.09742946793583016</v>
       </c>
       <c r="H45">
-        <v>0.09146460690648699</v>
-      </c>
-      <c r="I45">
-        <v>0.1653411548821103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.1165296337778873</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1595638895534773</v>
+        <v>0.1760064449079252</v>
       </c>
       <c r="C46">
-        <v>0.4312415348847912</v>
+        <v>0.5237751878922242</v>
       </c>
       <c r="D46">
-        <v>0.04957903353754201</v>
+        <v>0.05468790915817807</v>
       </c>
       <c r="E46">
-        <v>0.01828145264006851</v>
+        <v>0.02016525727722764</v>
       </c>
       <c r="F46">
-        <v>0.002643687077513566</v>
+        <v>0.003244773757037107</v>
       </c>
       <c r="G46">
-        <v>0.02299310114277564</v>
+        <v>0.0254180272329066</v>
       </c>
       <c r="H46">
-        <v>0.1783263758137875</v>
-      </c>
-      <c r="I46">
-        <v>0.1373709253500444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.1967023997745009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.2024146294227513</v>
+        <v>0.230794616822484</v>
       </c>
       <c r="C47">
-        <v>0.3683768676628508</v>
+        <v>0.4542283252441256</v>
       </c>
       <c r="D47">
-        <v>0.04402265339989773</v>
+        <v>0.05237991388463992</v>
       </c>
       <c r="E47">
-        <v>0.01669028759778474</v>
+        <v>0.01927536349941079</v>
       </c>
       <c r="F47">
-        <v>0.002474219433231298</v>
+        <v>0.003055337569415837</v>
       </c>
       <c r="G47">
-        <v>0.05499508146986514</v>
+        <v>0.06142787487079166</v>
       </c>
       <c r="H47">
-        <v>0.1312528711478909</v>
-      </c>
-      <c r="I47">
-        <v>0.179773389865728</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1788385681091322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.4402495475374541</v>
+        <v>0.4885068642428294</v>
       </c>
       <c r="C48">
-        <v>0.1797496089632117</v>
+        <v>0.1864801247061161</v>
       </c>
       <c r="D48">
-        <v>0.03190922095204989</v>
+        <v>0.03674858677653724</v>
       </c>
       <c r="E48">
-        <v>0.03118393830425051</v>
+        <v>0.03649980938185905</v>
       </c>
       <c r="F48">
-        <v>0.004287075465856546</v>
+        <v>0.003713647809180255</v>
       </c>
       <c r="G48">
-        <v>0.0928006043058517</v>
+        <v>0.08623543495863772</v>
       </c>
       <c r="H48">
-        <v>0.1481406822167876</v>
-      </c>
-      <c r="I48">
-        <v>0.07167932225453776</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.1618155321248405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.55321338854234E-06</v>
+        <v>2.669936643075482E-06</v>
       </c>
       <c r="C49">
-        <v>5.648207509148922E-06</v>
+        <v>5.618919846439282E-06</v>
       </c>
       <c r="D49">
-        <v>0.3013790128897911</v>
+        <v>0.2951473262582036</v>
       </c>
       <c r="E49">
-        <v>0.3013790128897911</v>
+        <v>0.2951473262582036</v>
       </c>
       <c r="F49">
-        <v>0.3972177781194913</v>
+        <v>0.4096855899383686</v>
       </c>
       <c r="G49">
-        <v>7.487838917901469E-06</v>
+        <v>7.815263763495012E-06</v>
       </c>
       <c r="H49">
-        <v>4.181822288702078E-06</v>
-      </c>
-      <c r="I49">
-        <v>4.32501882224507E-06</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>3.653424971215773E-06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.320339588070654E-06</v>
+        <v>2.426414770837365E-06</v>
       </c>
       <c r="C50">
-        <v>5.648206641169958E-06</v>
+        <v>5.618920675298807E-06</v>
       </c>
       <c r="D50">
-        <v>0.3013789665758689</v>
+        <v>0.2951473697960507</v>
       </c>
       <c r="E50">
-        <v>0.3013789665758689</v>
+        <v>0.2951473697960507</v>
       </c>
       <c r="F50">
-        <v>0.397217717077705</v>
+        <v>0.4096856503720129</v>
       </c>
       <c r="G50">
-        <v>7.487837767220185E-06</v>
+        <v>7.815264916342176E-06</v>
       </c>
       <c r="H50">
-        <v>5.111336149435107E-06</v>
-      </c>
-      <c r="I50">
-        <v>3.782050411336624E-06</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>3.749435523295941E-06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.4831529098099788</v>
+        <v>0.5162613841806935</v>
       </c>
       <c r="C51">
-        <v>0.1656719687957472</v>
+        <v>0.1739987792593605</v>
       </c>
       <c r="D51">
-        <v>0.02980404790642529</v>
+        <v>0.0347530516003409</v>
       </c>
       <c r="E51">
-        <v>0.0296307935194875</v>
+        <v>0.03513847759368828</v>
       </c>
       <c r="F51">
-        <v>0.003998617729537341</v>
+        <v>0.003507754021465451</v>
       </c>
       <c r="G51">
-        <v>0.07148130793417608</v>
+        <v>0.06655752357851848</v>
       </c>
       <c r="H51">
-        <v>0.150564986456217</v>
-      </c>
-      <c r="I51">
-        <v>0.06569536784843076</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.169783029765933</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.116338734984226E-06</v>
+        <v>2.974495872238758E-06</v>
       </c>
       <c r="C52">
-        <v>4.527185539579865E-06</v>
+        <v>4.460951676919507E-06</v>
       </c>
       <c r="D52">
-        <v>0.3573313919826229</v>
+        <v>0.3497781691368714</v>
       </c>
       <c r="E52">
-        <v>0.3573313919826229</v>
+        <v>0.3497781691368714</v>
       </c>
       <c r="F52">
-        <v>0.2853098940934155</v>
+        <v>0.3004268800347255</v>
       </c>
       <c r="G52">
-        <v>6.208634688728807E-06</v>
+        <v>6.28544386171376E-06</v>
       </c>
       <c r="H52">
-        <v>4.153158426158369E-06</v>
-      </c>
-      <c r="I52">
-        <v>8.316623949282596E-06</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>3.060800120670773E-06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.223259649773156E-05</v>
+        <v>3.813388755194643E-05</v>
       </c>
       <c r="C53">
-        <v>5.188802056681028E-05</v>
+        <v>4.685239631049473E-05</v>
       </c>
       <c r="D53">
-        <v>0.2985445172578992</v>
+        <v>0.3080751684758477</v>
       </c>
       <c r="E53">
-        <v>0.2985445172578992</v>
+        <v>0.3080751684758477</v>
       </c>
       <c r="F53">
-        <v>0.4026168556805511</v>
+        <v>0.3836770163379467</v>
       </c>
       <c r="G53">
-        <v>1.435717156152364E-05</v>
+        <v>1.316446783770991E-05</v>
       </c>
       <c r="H53">
-        <v>8.25018239476435E-05</v>
-      </c>
-      <c r="I53">
-        <v>0.0001031301910768844</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>7.449595865781232E-05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.223259649773156E-05</v>
+        <v>3.813388755194643E-05</v>
       </c>
       <c r="C54">
-        <v>5.188802056681028E-05</v>
+        <v>4.685239631049473E-05</v>
       </c>
       <c r="D54">
-        <v>0.2985445172578992</v>
+        <v>0.3080751684758477</v>
       </c>
       <c r="E54">
-        <v>0.2985445172578992</v>
+        <v>0.3080751684758477</v>
       </c>
       <c r="F54">
-        <v>0.4026168556805511</v>
+        <v>0.3836770163379467</v>
       </c>
       <c r="G54">
-        <v>1.435717156152364E-05</v>
+        <v>1.316446783770991E-05</v>
       </c>
       <c r="H54">
-        <v>8.25018239476435E-05</v>
-      </c>
-      <c r="I54">
-        <v>0.0001031301910768844</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>7.449595865781232E-05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.223259649773156E-05</v>
+        <v>3.813388755194643E-05</v>
       </c>
       <c r="C55">
-        <v>5.188802056681028E-05</v>
+        <v>4.685239631049473E-05</v>
       </c>
       <c r="D55">
-        <v>0.2985445172578992</v>
+        <v>0.3080751684758477</v>
       </c>
       <c r="E55">
-        <v>0.2985445172578992</v>
+        <v>0.3080751684758477</v>
       </c>
       <c r="F55">
-        <v>0.4026168556805511</v>
+        <v>0.3836770163379467</v>
       </c>
       <c r="G55">
-        <v>1.435717156152364E-05</v>
+        <v>1.316446783770991E-05</v>
       </c>
       <c r="H55">
-        <v>8.25018239476435E-05</v>
-      </c>
-      <c r="I55">
-        <v>0.0001031301910768844</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>7.449595865781232E-05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.489232882752593E-06</v>
+        <v>7.005551375647344E-06</v>
       </c>
       <c r="C56">
-        <v>6.13206121439156E-06</v>
+        <v>5.939169742153528E-06</v>
       </c>
       <c r="D56">
-        <v>0.3400593159521458</v>
+        <v>0.3407909236788284</v>
       </c>
       <c r="E56">
-        <v>0.3400593159521458</v>
+        <v>0.3407909236788284</v>
       </c>
       <c r="F56">
-        <v>0.3198367308705546</v>
+        <v>0.3183903685993326</v>
       </c>
       <c r="G56">
-        <v>2.508039954056521E-06</v>
+        <v>2.549275810338764E-06</v>
       </c>
       <c r="H56">
-        <v>1.272136125665088E-05</v>
-      </c>
-      <c r="I56">
-        <v>1.578652984570101E-05</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>1.229004608251326E-05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6.234020038794193E-05</v>
+        <v>5.715928471658338E-05</v>
       </c>
       <c r="C57">
-        <v>7.659272382275504E-05</v>
+        <v>7.022754909836293E-05</v>
       </c>
       <c r="D57">
-        <v>0.2842491420889233</v>
+        <v>0.2978502052614969</v>
       </c>
       <c r="E57">
-        <v>0.2842491420889233</v>
+        <v>0.2978502052614969</v>
       </c>
       <c r="F57">
-        <v>0.4310640843536676</v>
+        <v>0.4040367924007876</v>
       </c>
       <c r="G57">
-        <v>2.468420524035966E-05</v>
+        <v>2.374746725768186E-05</v>
       </c>
       <c r="H57">
-        <v>0.0001217822408229875</v>
-      </c>
-      <c r="I57">
-        <v>0.0001522320982117461</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.000111662775146023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.789765519543778E-06</v>
+        <v>3.466503552079281E-06</v>
       </c>
       <c r="C58">
-        <v>5.080100891845929E-06</v>
+        <v>4.978256303199951E-06</v>
       </c>
       <c r="D58">
-        <v>0.3502326903522287</v>
+        <v>0.3441448657979036</v>
       </c>
       <c r="E58">
-        <v>0.3502326903522287</v>
+        <v>0.3441448657979036</v>
       </c>
       <c r="F58">
-        <v>0.2995050477206036</v>
+        <v>0.3116926050605288</v>
       </c>
       <c r="G58">
-        <v>5.780672486207981E-06</v>
+        <v>5.663969694852486E-06</v>
       </c>
       <c r="H58">
-        <v>4.712035253417979E-06</v>
-      </c>
-      <c r="I58">
-        <v>9.20900078787893E-06</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>3.554614114001032E-06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.410820746713867E-05</v>
+        <v>2.303684860573957E-05</v>
       </c>
       <c r="C59">
-        <v>3.25921906106551E-05</v>
+        <v>3.114390425687679E-05</v>
       </c>
       <c r="D59">
-        <v>0.3668549350264029</v>
+        <v>0.3699690068890297</v>
       </c>
       <c r="E59">
-        <v>0.3668549350264029</v>
+        <v>0.3699690068890297</v>
       </c>
       <c r="F59">
-        <v>0.2660871130179256</v>
+        <v>0.2599230356082036</v>
       </c>
       <c r="G59">
-        <v>1.586154890469351E-05</v>
+        <v>1.527710815875455E-05</v>
       </c>
       <c r="H59">
-        <v>7.27233031623083E-05</v>
-      </c>
-      <c r="I59">
-        <v>5.773167912377348E-05</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>6.949275271574618E-05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.410820746713867E-05</v>
+        <v>2.303684860573957E-05</v>
       </c>
       <c r="C60">
-        <v>3.25921906106551E-05</v>
+        <v>3.114390425687679E-05</v>
       </c>
       <c r="D60">
-        <v>0.3668549350264029</v>
+        <v>0.3699690068890297</v>
       </c>
       <c r="E60">
-        <v>0.3668549350264029</v>
+        <v>0.3699690068890297</v>
       </c>
       <c r="F60">
-        <v>0.2660871130179256</v>
+        <v>0.2599230356082036</v>
       </c>
       <c r="G60">
-        <v>1.586154890469351E-05</v>
+        <v>1.527710815875455E-05</v>
       </c>
       <c r="H60">
-        <v>7.27233031623083E-05</v>
-      </c>
-      <c r="I60">
-        <v>5.773167912377348E-05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>6.949275271574618E-05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.365974682958738E-05</v>
+        <v>2.260830379067907E-05</v>
       </c>
       <c r="C61">
-        <v>2.869100695858058E-05</v>
+        <v>2.741602465705296E-05</v>
       </c>
       <c r="D61">
-        <v>0.3668560371407112</v>
+        <v>0.3699699571295338</v>
       </c>
       <c r="E61">
-        <v>0.3668560371407112</v>
+        <v>0.3699699571295338</v>
       </c>
       <c r="F61">
-        <v>0.26608791240315</v>
+        <v>0.259923703203034</v>
       </c>
       <c r="G61">
-        <v>1.720718743719363E-05</v>
+        <v>1.686527824743753E-05</v>
       </c>
       <c r="H61">
-        <v>7.27235216393828E-05</v>
-      </c>
-      <c r="I61">
-        <v>5.7731852562655E-05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>6.949293120320633E-05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1428212921534707</v>
+        <v>0.1591403351777384</v>
       </c>
       <c r="C62">
-        <v>0.2335728427976299</v>
+        <v>0.3955312030763499</v>
       </c>
       <c r="D62">
-        <v>0.09882516116111811</v>
+        <v>0.1098134038101352</v>
       </c>
       <c r="E62">
-        <v>0.01600537527888703</v>
+        <v>0.02956732447518165</v>
       </c>
       <c r="F62">
-        <v>0.00232987172723576</v>
+        <v>0.003190914241988203</v>
       </c>
       <c r="G62">
-        <v>0.126721348210062</v>
+        <v>0.2066318192701538</v>
       </c>
       <c r="H62">
-        <v>0.07326048519195517</v>
-      </c>
-      <c r="I62">
-        <v>0.3064636234796414</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.09612499994845299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.3600113410737214</v>
+        <v>0.4439295342760372</v>
       </c>
       <c r="C63">
-        <v>0.1381376663779344</v>
+        <v>0.1800359594720098</v>
       </c>
       <c r="D63">
-        <v>0.07900005643563303</v>
+        <v>0.09689517227669872</v>
       </c>
       <c r="E63">
-        <v>0.005203806817385715</v>
+        <v>0.007509604017472004</v>
       </c>
       <c r="F63">
-        <v>0.001063020858970888</v>
+        <v>0.00135962536704692</v>
       </c>
       <c r="G63">
-        <v>0.1060335773907697</v>
+        <v>0.1416555780417544</v>
       </c>
       <c r="H63">
-        <v>0.09809011593925926</v>
-      </c>
-      <c r="I63">
-        <v>0.2124604151063255</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.128614526548981</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.2259121226217453</v>
+        <v>0.2691878529951712</v>
       </c>
       <c r="C64">
-        <v>0.2333801253299325</v>
+        <v>0.2780865130138849</v>
       </c>
       <c r="D64">
-        <v>0.0599698447918316</v>
+        <v>0.07145717504747263</v>
       </c>
       <c r="E64">
-        <v>0.0599698447918316</v>
+        <v>0.07145717504747263</v>
       </c>
       <c r="F64">
-        <v>0.001571619629619731</v>
+        <v>0.001966851839252315</v>
       </c>
       <c r="G64">
-        <v>0.04880312036640356</v>
+        <v>0.06550177088455048</v>
       </c>
       <c r="H64">
-        <v>0.2033828636641819</v>
-      </c>
-      <c r="I64">
-        <v>0.1670104588044537</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.2423426611721957</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.3133808413688788</v>
+        <v>0.3314872354493723</v>
       </c>
       <c r="C65">
-        <v>0.3581449047977801</v>
+        <v>0.4082116191452475</v>
       </c>
       <c r="D65">
-        <v>0.05530189669304632</v>
+        <v>0.05461779810561731</v>
       </c>
       <c r="E65">
-        <v>0.008069725880806207</v>
+        <v>0.009459704606298717</v>
       </c>
       <c r="F65">
-        <v>0.002725813358807086</v>
+        <v>0.002716321430224205</v>
       </c>
       <c r="G65">
-        <v>0.1043206398849823</v>
+        <v>0.1078583860139395</v>
       </c>
       <c r="H65">
-        <v>0.08044670864975152</v>
-      </c>
-      <c r="I65">
-        <v>0.07760946936594794</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.08564893524930053</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.963150409552829E-05</v>
+        <v>2.898834123281479E-05</v>
       </c>
       <c r="C66">
-        <v>3.593266218448533E-05</v>
+        <v>3.515279542260804E-05</v>
       </c>
       <c r="D66">
-        <v>0.3332489194805985</v>
+        <v>0.3332738746218036</v>
       </c>
       <c r="E66">
-        <v>0.3332489194805985</v>
+        <v>0.3332738746218036</v>
       </c>
       <c r="F66">
-        <v>0.3332489194805985</v>
+        <v>0.3332738746218036</v>
       </c>
       <c r="G66">
-        <v>2.429487634680544E-05</v>
+        <v>2.513124111785057E-05</v>
       </c>
       <c r="H66">
-        <v>9.107905273964388E-05</v>
-      </c>
-      <c r="I66">
-        <v>7.230346283813471E-05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>8.910375681600658E-05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.870922377136668E-06</v>
+        <v>2.159912172962766E-06</v>
       </c>
       <c r="C67">
-        <v>7.264052487174347E-06</v>
+        <v>7.390059001557352E-06</v>
       </c>
       <c r="D67">
-        <v>0.2519563008517242</v>
+        <v>0.2445422896627208</v>
       </c>
       <c r="E67">
-        <v>0.2519563008517242</v>
+        <v>0.2445422896627208</v>
       </c>
       <c r="F67">
-        <v>0.496046956706109</v>
+        <v>0.5108853565008988</v>
       </c>
       <c r="G67">
-        <v>1.687758310769748E-05</v>
+        <v>1.652195074217189E-05</v>
       </c>
       <c r="H67">
-        <v>3.980591611468454E-06</v>
-      </c>
-      <c r="I67">
-        <v>1.044844085906996E-05</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>3.992251742771742E-06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.963150409552829E-05</v>
+        <v>2.898834123281479E-05</v>
       </c>
       <c r="C68">
-        <v>3.593266218448533E-05</v>
+        <v>3.515279542260804E-05</v>
       </c>
       <c r="D68">
-        <v>0.3332489194805985</v>
+        <v>0.3332738746218036</v>
       </c>
       <c r="E68">
-        <v>0.3332489194805985</v>
+        <v>0.3332738746218036</v>
       </c>
       <c r="F68">
-        <v>0.3332489194805985</v>
+        <v>0.3332738746218036</v>
       </c>
       <c r="G68">
-        <v>2.429487634680544E-05</v>
+        <v>2.513124111785057E-05</v>
       </c>
       <c r="H68">
-        <v>9.107905273964388E-05</v>
-      </c>
-      <c r="I68">
-        <v>7.230346283813471E-05</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>8.910375681600658E-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1038296534638389</v>
+        <v>0.1123581629617588</v>
       </c>
       <c r="C69">
-        <v>0.4802873027699425</v>
+        <v>0.5487960805059843</v>
       </c>
       <c r="D69">
-        <v>0.1079717361157616</v>
+        <v>0.124359882696367</v>
       </c>
       <c r="E69">
-        <v>0.01922000192557505</v>
+        <v>0.02113687293735752</v>
       </c>
       <c r="F69">
-        <v>0.008468066166723571</v>
+        <v>0.009554337659562621</v>
       </c>
       <c r="G69">
-        <v>0.04898282003362255</v>
+        <v>0.05290031381695664</v>
       </c>
       <c r="H69">
-        <v>0.1109360233621547</v>
-      </c>
-      <c r="I69">
-        <v>0.120304396162381</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.1308943494220132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.2270378205385827</v>
+        <v>0.2707875414989732</v>
       </c>
       <c r="C70">
-        <v>0.229557579423705</v>
+        <v>0.2737928813547914</v>
       </c>
       <c r="D70">
-        <v>0.06026866863789964</v>
+        <v>0.07188181984539248</v>
       </c>
       <c r="E70">
-        <v>0.06026866863789964</v>
+        <v>0.07188181984539248</v>
       </c>
       <c r="F70">
-        <v>0.001582005227739102</v>
+        <v>0.00198209447454382</v>
       </c>
       <c r="G70">
-        <v>0.04904630152150964</v>
+        <v>0.06589102481520451</v>
       </c>
       <c r="H70">
-        <v>0.204396300496567</v>
-      </c>
-      <c r="I70">
-        <v>0.1678426555160973</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.243782818165702</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.259589167435811E-06</v>
+        <v>3.695411567384139E-06</v>
       </c>
       <c r="C71">
-        <v>6.53251910229955E-06</v>
+        <v>6.645828667991694E-06</v>
       </c>
       <c r="D71">
-        <v>0.251956136319478</v>
+        <v>0.244542096162125</v>
       </c>
       <c r="E71">
-        <v>0.251956136319478</v>
+        <v>0.244542096162125</v>
       </c>
       <c r="F71">
-        <v>0.496046632778032</v>
+        <v>0.5108849522492621</v>
       </c>
       <c r="G71">
-        <v>1.68775720863154E-05</v>
+        <v>1.652193766873859E-05</v>
       </c>
       <c r="H71">
-        <v>4.869157041998663E-06</v>
-      </c>
-      <c r="I71">
-        <v>9.555745614024926E-06</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>3.992248583796287E-06</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1819878005245078</v>
+        <v>0.2377535884170529</v>
       </c>
       <c r="C72">
-        <v>0.2064976777902515</v>
+        <v>0.2218598825639824</v>
       </c>
       <c r="D72">
-        <v>0.1421838277309372</v>
+        <v>0.1486473763477934</v>
       </c>
       <c r="E72">
-        <v>0.04739516217752813</v>
+        <v>0.04954962093804153</v>
       </c>
       <c r="F72">
-        <v>0.001425440630055314</v>
+        <v>0.001727002274617971</v>
       </c>
       <c r="G72">
-        <v>0.1459125200040123</v>
+        <v>0.1680844248301895</v>
       </c>
       <c r="H72">
-        <v>0.1487928196260346</v>
-      </c>
-      <c r="I72">
-        <v>0.1258047515166733</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.1723781046283223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.963167658481859E-05</v>
+        <v>2.898834123281479E-05</v>
       </c>
       <c r="C73">
-        <v>3.593287135373231E-05</v>
+        <v>3.515279542260804E-05</v>
       </c>
       <c r="D73">
-        <v>0.3332508593709743</v>
+        <v>0.3332738746218036</v>
       </c>
       <c r="E73">
-        <v>0.3332508593709743</v>
+        <v>0.3332738746218036</v>
       </c>
       <c r="F73">
-        <v>0.3332508593709743</v>
+        <v>0.3332738746218036</v>
       </c>
       <c r="G73">
-        <v>2.494770079355257E-05</v>
+        <v>2.513124111785057E-05</v>
       </c>
       <c r="H73">
-        <v>9.107958292404214E-05</v>
-      </c>
-      <c r="I73">
-        <v>6.583005542108977E-05</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>8.910375681600658E-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.2633609308373802</v>
+        <v>0.2905157008775207</v>
       </c>
       <c r="C74">
-        <v>0.359433962468716</v>
+        <v>0.4585913679133483</v>
       </c>
       <c r="D74">
-        <v>0.04855525815091884</v>
+        <v>0.05214232411812271</v>
       </c>
       <c r="E74">
-        <v>0.01379595526117001</v>
+        <v>0.01793868683427247</v>
       </c>
       <c r="F74">
-        <v>0.001698039692403033</v>
+        <v>0.002111467384433722</v>
       </c>
       <c r="G74">
-        <v>0.08748254352178056</v>
+        <v>0.09873445180912675</v>
       </c>
       <c r="H74">
-        <v>0.06881391080975471</v>
-      </c>
-      <c r="I74">
-        <v>0.1568593992578768</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.07996600106317538</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.963167658481859E-05</v>
+        <v>2.898834123281479E-05</v>
       </c>
       <c r="C75">
-        <v>3.593287135373231E-05</v>
+        <v>3.515279542260804E-05</v>
       </c>
       <c r="D75">
-        <v>0.3332508593709743</v>
+        <v>0.3332738746218036</v>
       </c>
       <c r="E75">
-        <v>0.3332508593709743</v>
+        <v>0.3332738746218036</v>
       </c>
       <c r="F75">
-        <v>0.3332508593709743</v>
+        <v>0.3332738746218036</v>
       </c>
       <c r="G75">
-        <v>2.494770079355257E-05</v>
+        <v>2.513124111785057E-05</v>
       </c>
       <c r="H75">
-        <v>9.107958292404214E-05</v>
-      </c>
-      <c r="I75">
-        <v>6.583005542108977E-05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>8.910375681600658E-05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.176768746525866</v>
+        <v>0.2298826669458676</v>
       </c>
       <c r="C76">
-        <v>0.2077010870528357</v>
+        <v>0.2239987018796996</v>
       </c>
       <c r="D76">
-        <v>0.1430124343143724</v>
+        <v>0.1500803973883219</v>
       </c>
       <c r="E76">
-        <v>0.04767136759434667</v>
+        <v>0.05002729939493059</v>
       </c>
       <c r="F76">
-        <v>0.001433747689368897</v>
+        <v>0.001743651277495943</v>
       </c>
       <c r="G76">
-        <v>0.1472147697639283</v>
+        <v>0.1702273835924551</v>
       </c>
       <c r="H76">
-        <v>0.1496599415194142</v>
-      </c>
-      <c r="I76">
-        <v>0.1265379055398679</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1740398995212294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.2419252458500968</v>
+        <v>0.2999859205407902</v>
       </c>
       <c r="C77">
-        <v>0.2592227077360199</v>
+        <v>0.2913940838065448</v>
       </c>
       <c r="D77">
-        <v>0.05076099225877955</v>
+        <v>0.0527064571566691</v>
       </c>
       <c r="E77">
-        <v>0.01691135417158094</v>
+        <v>0.02634520966245739</v>
       </c>
       <c r="F77">
-        <v>0.001640834827586129</v>
+        <v>0.001858645849737742</v>
       </c>
       <c r="G77">
-        <v>0.1107956981649446</v>
+        <v>0.1376437908384019</v>
       </c>
       <c r="H77">
-        <v>0.1778604361149722</v>
-      </c>
-      <c r="I77">
-        <v>0.1408827308760198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.1900658921453987</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.259589167435811E-06</v>
+        <v>3.695411567384139E-06</v>
       </c>
       <c r="C78">
-        <v>6.53251910229955E-06</v>
+        <v>6.645828667991694E-06</v>
       </c>
       <c r="D78">
-        <v>0.251956136319478</v>
+        <v>0.244542096162125</v>
       </c>
       <c r="E78">
-        <v>0.251956136319478</v>
+        <v>0.244542096162125</v>
       </c>
       <c r="F78">
-        <v>0.496046632778032</v>
+        <v>0.5108849522492621</v>
       </c>
       <c r="G78">
-        <v>1.68775720863154E-05</v>
+        <v>1.652193766873859E-05</v>
       </c>
       <c r="H78">
-        <v>4.869157041998663E-06</v>
-      </c>
-      <c r="I78">
-        <v>9.555745614024926E-06</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>3.992248583796287E-06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2.870782029083738E-05</v>
+        <v>2.808447041260285E-05</v>
       </c>
       <c r="C79">
-        <v>3.481255643446208E-05</v>
+        <v>3.405671387119428E-05</v>
       </c>
       <c r="D79">
-        <v>0.3332529426530301</v>
+        <v>0.333275247544904</v>
       </c>
       <c r="E79">
-        <v>0.3332529426530301</v>
+        <v>0.333275247544904</v>
       </c>
       <c r="F79">
-        <v>0.3332529426530301</v>
+        <v>0.333275247544904</v>
       </c>
       <c r="G79">
-        <v>2.563415391580594E-05</v>
+        <v>2.579072340546981E-05</v>
       </c>
       <c r="H79">
-        <v>8.823990405211932E-05</v>
-      </c>
-      <c r="I79">
-        <v>6.377760621661025E-05</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>8.632545759873095E-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1594984523823376</v>
+        <v>0.167486171794249</v>
       </c>
       <c r="C80">
-        <v>0.2234214470394593</v>
+        <v>0.4036771951090211</v>
       </c>
       <c r="D80">
-        <v>0.07234348806383975</v>
+        <v>0.07596968629989763</v>
       </c>
       <c r="E80">
-        <v>0.01856139788993486</v>
+        <v>0.03899111511424701</v>
       </c>
       <c r="F80">
-        <v>0.002174835457948297</v>
+        <v>0.00280612846393195</v>
       </c>
       <c r="G80">
-        <v>0.1334858242751413</v>
+        <v>0.2173970652452043</v>
       </c>
       <c r="H80">
-        <v>0.07465576850722692</v>
-      </c>
-      <c r="I80">
-        <v>0.3158587863841119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.09367263797344889</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2.818655314886891E-05</v>
+        <v>2.797865619674882E-05</v>
       </c>
       <c r="C81">
-        <v>3.556090510123972E-05</v>
+        <v>3.529868711853769E-05</v>
       </c>
       <c r="D81">
-        <v>0.3128546889234875</v>
+        <v>0.3101351704359989</v>
       </c>
       <c r="E81">
-        <v>0.3128546889234875</v>
+        <v>0.3101351704359989</v>
       </c>
       <c r="F81">
-        <v>0.3740552471913528</v>
+        <v>0.3795632468192013</v>
       </c>
       <c r="G81">
-        <v>3.894529396285557E-05</v>
+        <v>4.248915414408226E-05</v>
       </c>
       <c r="H81">
-        <v>6.109590006690242E-05</v>
-      </c>
-      <c r="I81">
-        <v>7.158630939221804E-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>6.064581134140672E-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.2356797080818565</v>
+        <v>0.2834483337122171</v>
       </c>
       <c r="C82">
-        <v>0.2382953781806689</v>
+        <v>0.2865941895727011</v>
       </c>
       <c r="D82">
-        <v>0.06312407050203522</v>
+        <v>0.07591781686946106</v>
       </c>
       <c r="E82">
-        <v>0.06312407050203522</v>
+        <v>0.07591781686946106</v>
       </c>
       <c r="F82">
-        <v>0.001670956238507129</v>
+        <v>0.002115085591287727</v>
       </c>
       <c r="G82">
-        <v>0.04780826006703938</v>
+        <v>0.06425517401757676</v>
       </c>
       <c r="H82">
-        <v>0.1760661972565996</v>
-      </c>
-      <c r="I82">
-        <v>0.174231359171258</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.2117515833672951</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.228019681330043</v>
+        <v>0.2640701198195857</v>
       </c>
       <c r="C83">
-        <v>0.2435742519441698</v>
+        <v>0.260067019131648</v>
       </c>
       <c r="D83">
-        <v>0.06426325524410614</v>
+        <v>0.08465936632709341</v>
       </c>
       <c r="E83">
-        <v>0.03069166899152213</v>
+        <v>0.03990886980143783</v>
       </c>
       <c r="F83">
-        <v>0.003560373573330403</v>
+        <v>0.004034975888144843</v>
       </c>
       <c r="G83">
-        <v>0.1290851543255963</v>
+        <v>0.1441315279030441</v>
       </c>
       <c r="H83">
-        <v>0.1644469392579289</v>
-      </c>
-      <c r="I83">
-        <v>0.1363586753333033</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.203128121129046</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.235856818482942</v>
+        <v>0.2835316900798439</v>
       </c>
       <c r="C84">
-        <v>0.2384744542256533</v>
+        <v>0.2866784710723057</v>
       </c>
       <c r="D84">
-        <v>0.06317150746440993</v>
+        <v>0.07594014274934721</v>
       </c>
       <c r="E84">
-        <v>0.06317150746440993</v>
+        <v>0.07594014274934721</v>
       </c>
       <c r="F84">
-        <v>0.001675318097394313</v>
+        <v>0.002119296642871212</v>
       </c>
       <c r="G84">
-        <v>0.0476464878078225</v>
+        <v>0.06397640152176806</v>
       </c>
       <c r="H84">
-        <v>0.1761985088377174</v>
-      </c>
-      <c r="I84">
-        <v>0.1738053976196506</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.2118138551845168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.269280649400887E-05</v>
+        <v>1.343000975950759E-05</v>
       </c>
       <c r="C85">
-        <v>1.319610579300937E-05</v>
+        <v>1.396254458449538E-05</v>
       </c>
       <c r="D85">
-        <v>0.4040176440642</v>
+        <v>0.3961932241309524</v>
       </c>
       <c r="E85">
-        <v>0.4040176440642</v>
+        <v>0.3961932241309524</v>
       </c>
       <c r="F85">
-        <v>0.1918805299511595</v>
+        <v>0.2075455867298867</v>
       </c>
       <c r="G85">
-        <v>2.118217658846046E-05</v>
+        <v>2.502498999389797E-05</v>
       </c>
       <c r="H85">
-        <v>1.469401332379072E-05</v>
-      </c>
-      <c r="I85">
-        <v>2.241681824120195E-05</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>1.554746387061994E-05</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.269282332748664E-05</v>
+        <v>1.343000975950759E-05</v>
       </c>
       <c r="C86">
-        <v>1.319612329397369E-05</v>
+        <v>1.396254458449538E-05</v>
       </c>
       <c r="D86">
-        <v>0.4040181798812421</v>
+        <v>0.3961932241309524</v>
       </c>
       <c r="E86">
-        <v>0.4040181798812421</v>
+        <v>0.3961932241309524</v>
       </c>
       <c r="F86">
-        <v>0.1918807844273179</v>
+        <v>0.2075455867298867</v>
       </c>
       <c r="G86">
-        <v>2.201671855969448E-05</v>
+        <v>2.502498999389797E-05</v>
       </c>
       <c r="H86">
-        <v>1.469403281131279E-05</v>
-      </c>
-      <c r="I86">
-        <v>2.025611220540769E-05</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>1.554746387061994E-05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.25843366785164E-05</v>
+        <v>1.340613042878701E-05</v>
       </c>
       <c r="C87">
-        <v>1.362382313342578E-05</v>
+        <v>1.451350606740928E-05</v>
       </c>
       <c r="D87">
-        <v>0.4171128219076505</v>
+        <v>0.4118269938186083</v>
       </c>
       <c r="E87">
-        <v>0.4171128219076505</v>
+        <v>0.4118269938186083</v>
       </c>
       <c r="F87">
-        <v>0.165687991961213</v>
+        <v>0.1762739496089415</v>
       </c>
       <c r="G87">
-        <v>2.407314874596134E-05</v>
+        <v>2.798215113663367E-05</v>
       </c>
       <c r="H87">
-        <v>1.517028142875124E-05</v>
-      </c>
-      <c r="I87">
-        <v>2.091263349921319E-05</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>1.616096620881259E-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.048020532262719E-05</v>
+        <v>1.122240021709398E-05</v>
       </c>
       <c r="C88">
-        <v>1.152974719385232E-05</v>
+        <v>1.234627712964195E-05</v>
       </c>
       <c r="D88">
-        <v>0.4270081550767348</v>
+        <v>0.4237811538434011</v>
       </c>
       <c r="E88">
-        <v>0.4270081550767348</v>
+        <v>0.4237811538434011</v>
       </c>
       <c r="F88">
-        <v>0.1459003116801566</v>
+        <v>0.1523639961247021</v>
       </c>
       <c r="G88">
-        <v>3.083149277228894E-05</v>
+        <v>3.637978082300789E-05</v>
       </c>
       <c r="H88">
-        <v>1.283850414234735E-05</v>
-      </c>
-      <c r="I88">
-        <v>1.769821694264648E-05</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>1.374773032581201E-05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.239827583872564E-05</v>
+        <v>1.095849396139692E-05</v>
       </c>
       <c r="C89">
-        <v>9.943384053373509E-06</v>
+        <v>9.210407987750578E-06</v>
       </c>
       <c r="D89">
-        <v>0.3067306035739898</v>
+        <v>0.3189107016035776</v>
       </c>
       <c r="E89">
-        <v>0.3067306035739898</v>
+        <v>0.3189107016035776</v>
       </c>
       <c r="F89">
-        <v>0.3864501238362414</v>
+        <v>0.3621282797800158</v>
       </c>
       <c r="G89">
-        <v>2.624246960312187E-06</v>
+        <v>2.439692404626737E-06</v>
       </c>
       <c r="H89">
-        <v>3.021864586832245E-05</v>
-      </c>
-      <c r="I89">
-        <v>3.348446305825966E-05</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>2.770841847523546E-05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1402893419372458</v>
+        <v>0.1748847137002768</v>
       </c>
       <c r="C90">
-        <v>0.3537123260069344</v>
+        <v>0.4527695853150541</v>
       </c>
       <c r="D90">
-        <v>0.0651047498953248</v>
+        <v>0.07541306370126451</v>
       </c>
       <c r="E90">
-        <v>0.0217502934373809</v>
+        <v>0.03023448714968474</v>
       </c>
       <c r="F90">
-        <v>0.004925675159470248</v>
+        <v>0.006857546442236108</v>
       </c>
       <c r="G90">
-        <v>0.1226684806477234</v>
+        <v>0.1795387710880916</v>
       </c>
       <c r="H90">
-        <v>0.0680059064220668</v>
-      </c>
-      <c r="I90">
-        <v>0.2235432264938537</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.08030183260339212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1508524839069167</v>
+        <v>0.1861391758044885</v>
       </c>
       <c r="C91">
-        <v>0.4602571716554985</v>
+        <v>0.5471961603832898</v>
       </c>
       <c r="D91">
-        <v>0.05054316151309841</v>
+        <v>0.05950102596880347</v>
       </c>
       <c r="E91">
-        <v>0.01958382332432905</v>
+        <v>0.02242218893919573</v>
       </c>
       <c r="F91">
-        <v>0.002496577259120473</v>
+        <v>0.003031442012698812</v>
       </c>
       <c r="G91">
-        <v>0.03152394044205774</v>
+        <v>0.03500644113990743</v>
       </c>
       <c r="H91">
-        <v>0.1117545261338928</v>
-      </c>
-      <c r="I91">
-        <v>0.1729883157650863</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.1467035657516163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1096363996976957</v>
+        <v>0.1279735528633326</v>
       </c>
       <c r="C92">
-        <v>0.4239244106234779</v>
+        <v>0.522296755400247</v>
       </c>
       <c r="D92">
-        <v>0.05246706912547038</v>
+        <v>0.05695475276432242</v>
       </c>
       <c r="E92">
-        <v>0.01484470723062468</v>
+        <v>0.0187957921147987</v>
       </c>
       <c r="F92">
-        <v>0.003352680473858791</v>
+        <v>0.004245672042731338</v>
       </c>
       <c r="G92">
-        <v>0.09747760837324425</v>
+        <v>0.1324514288155005</v>
       </c>
       <c r="H92">
-        <v>0.1215913013144869</v>
-      </c>
-      <c r="I92">
-        <v>0.1767058231611414</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.1372820459990673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1386077768857364</v>
+        <v>0.1614845054651905</v>
       </c>
       <c r="C93">
-        <v>0.4054357815063052</v>
+        <v>0.4765602350549761</v>
       </c>
       <c r="D93">
-        <v>0.06997619245421802</v>
+        <v>0.07947951105598187</v>
       </c>
       <c r="E93">
-        <v>0.01846030534769371</v>
+        <v>0.02114620056634085</v>
       </c>
       <c r="F93">
-        <v>0.002038409376934615</v>
+        <v>0.00263205981490331</v>
       </c>
       <c r="G93">
-        <v>0.09912896644301313</v>
+        <v>0.1154897790510688</v>
       </c>
       <c r="H93">
-        <v>0.1100109725079283</v>
-      </c>
-      <c r="I93">
-        <v>0.1563415954781706</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.1432077089915385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.3578046312384182</v>
+        <v>0.4567261884064645</v>
       </c>
       <c r="C94">
-        <v>0.06293995505583916</v>
+        <v>0.06741853085414398</v>
       </c>
       <c r="D94">
-        <v>0.104727404465332</v>
+        <v>0.1110624496448177</v>
       </c>
       <c r="E94">
-        <v>0.007156498543753179</v>
+        <v>0.008378340321085939</v>
       </c>
       <c r="F94">
-        <v>0.001449563029769878</v>
+        <v>0.001593347124529949</v>
       </c>
       <c r="G94">
-        <v>0.1623981209371741</v>
+        <v>0.1927130681239269</v>
       </c>
       <c r="H94">
-        <v>0.1314875918181835</v>
-      </c>
-      <c r="I94">
-        <v>0.1720362349115299</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.1621080755250312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.2530821087266012</v>
+        <v>0.3032874428789445</v>
       </c>
       <c r="C95">
-        <v>0.2116365066307981</v>
+        <v>0.2536196984991838</v>
       </c>
       <c r="D95">
-        <v>0.08069830096005702</v>
+        <v>0.0958474747041452</v>
       </c>
       <c r="E95">
-        <v>0.08069830096005702</v>
+        <v>0.0958474747041452</v>
       </c>
       <c r="F95">
-        <v>0.002086098623907334</v>
+        <v>0.002630096413546469</v>
       </c>
       <c r="G95">
-        <v>0.05593734573887337</v>
+        <v>0.07450863085557162</v>
       </c>
       <c r="H95">
-        <v>0.1454133272215265</v>
-      </c>
-      <c r="I95">
-        <v>0.1704480111381795</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1742591819444631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.2793278907501439</v>
+        <v>0.3078760831190422</v>
       </c>
       <c r="C96">
-        <v>0.1674202971530932</v>
+        <v>0.3258885758850378</v>
       </c>
       <c r="D96">
-        <v>0.07669935871158731</v>
+        <v>0.08454220154396672</v>
       </c>
       <c r="E96">
-        <v>0.008717115745035111</v>
+        <v>0.01340997676635956</v>
       </c>
       <c r="F96">
-        <v>0.001849452521652958</v>
+        <v>0.002497121876983344</v>
       </c>
       <c r="G96">
-        <v>0.07959409114302587</v>
+        <v>0.1174843602181796</v>
       </c>
       <c r="H96">
-        <v>0.1052203463114047</v>
-      </c>
-      <c r="I96">
-        <v>0.281171447664057</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.148301680590431</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.2608070809304243</v>
+        <v>0.3160121424259932</v>
       </c>
       <c r="C97">
-        <v>0.2156513664295494</v>
+        <v>0.2612979491516006</v>
       </c>
       <c r="D97">
-        <v>0.08534037250739079</v>
+        <v>0.1024854745859309</v>
       </c>
       <c r="E97">
-        <v>0.04267055961455821</v>
+        <v>0.05124312161061274</v>
       </c>
       <c r="F97">
-        <v>0.002841815155535546</v>
+        <v>0.00371089738287214</v>
       </c>
       <c r="G97">
-        <v>0.05865792792868071</v>
+        <v>0.07892276230752887</v>
       </c>
       <c r="H97">
-        <v>0.1537780518965216</v>
-      </c>
-      <c r="I97">
-        <v>0.1802528255373394</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.1863276525354613</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.2614087977055547</v>
+        <v>0.3168956655671936</v>
       </c>
       <c r="C98">
-        <v>0.2161489029392849</v>
+        <v>0.2620284995128979</v>
       </c>
       <c r="D98">
-        <v>0.08553726414679866</v>
+        <v>0.1027720087923017</v>
       </c>
       <c r="E98">
-        <v>0.04276900629565553</v>
+        <v>0.05138638978829335</v>
       </c>
       <c r="F98">
-        <v>0.002853320361420913</v>
+        <v>0.003728271500982065</v>
       </c>
       <c r="G98">
-        <v>0.05879325960412127</v>
+        <v>0.07914341866057546</v>
       </c>
       <c r="H98">
-        <v>0.151820756062575</v>
-      </c>
-      <c r="I98">
-        <v>0.1806686928845891</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.1840457461777558</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7.188518238152973E-06</v>
+        <v>7.477318428302913E-06</v>
       </c>
       <c r="C99">
-        <v>9.752791646650764E-06</v>
+        <v>1.014463010668905E-05</v>
       </c>
       <c r="D99">
-        <v>0.4366164679222427</v>
+        <v>0.4357081402869876</v>
       </c>
       <c r="E99">
-        <v>0.4366164679222427</v>
+        <v>0.4357081402869876</v>
       </c>
       <c r="F99">
-        <v>0.1266964073497466</v>
+        <v>0.1285232050085245</v>
       </c>
       <c r="G99">
-        <v>2.725410551601629E-05</v>
+        <v>3.135411320712764E-05</v>
       </c>
       <c r="H99">
-        <v>1.109267403401194E-05</v>
-      </c>
-      <c r="I99">
-        <v>1.53687163331447E-05</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>1.153835575828254E-05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.1988576785708431</v>
+        <v>0.2453667969952062</v>
       </c>
       <c r="C100">
-        <v>0.2339976248691991</v>
+        <v>0.2887256127264751</v>
       </c>
       <c r="D100">
-        <v>0.09365123368983122</v>
+        <v>0.1145394304243226</v>
       </c>
       <c r="E100">
-        <v>0.04682602656547795</v>
+        <v>0.05727014473180399</v>
       </c>
       <c r="F100">
-        <v>0.003106425263712603</v>
+        <v>0.004133307037251398</v>
       </c>
       <c r="G100">
-        <v>0.06364817456208421</v>
+        <v>0.08720704842611139</v>
       </c>
       <c r="H100">
-        <v>0.1643252371511248</v>
-      </c>
-      <c r="I100">
-        <v>0.195587599327727</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.2027576596588293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5.335764312041272E-06</v>
+        <v>4.090830658455339E-06</v>
       </c>
       <c r="C101">
-        <v>9.17585176456377E-06</v>
+        <v>9.577128999785351E-06</v>
       </c>
       <c r="D101">
-        <v>0.2490444960391494</v>
+        <v>0.2498322624262107</v>
       </c>
       <c r="E101">
-        <v>0.2490444960391494</v>
+        <v>0.2498322624262107</v>
       </c>
       <c r="F101">
-        <v>0.5018759546652836</v>
+        <v>0.500309270283841</v>
       </c>
       <c r="G101">
-        <v>6.966758703666532E-06</v>
+        <v>6.646136274382661E-06</v>
       </c>
       <c r="H101">
-        <v>8.247936679992742E-06</v>
-      </c>
-      <c r="I101">
-        <v>5.326944957246193E-06</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>5.890767805052545E-06</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.1562397734410936</v>
+        <v>0.200251130596097</v>
       </c>
       <c r="C102">
-        <v>0.2217117145850605</v>
+        <v>0.2405022639387625</v>
       </c>
       <c r="D102">
-        <v>0.1345356930080315</v>
+        <v>0.1423368446821041</v>
       </c>
       <c r="E102">
-        <v>0.03363436469531923</v>
+        <v>0.03558461149140051</v>
       </c>
       <c r="F102">
-        <v>0.001655677436901339</v>
+        <v>0.002030999490122577</v>
       </c>
       <c r="G102">
-        <v>0.1464877143026578</v>
+        <v>0.1705095277697201</v>
       </c>
       <c r="H102">
-        <v>0.174828985914563</v>
-      </c>
-      <c r="I102">
-        <v>0.1309060766163732</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.2087846220317933</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7.221178704150289E-06</v>
+        <v>8.255668382987757E-06</v>
       </c>
       <c r="C103">
-        <v>1.067038276719823E-05</v>
+        <v>1.028868187796244E-05</v>
       </c>
       <c r="D103">
-        <v>0.1127106027407364</v>
+        <v>0.1219655988266991</v>
       </c>
       <c r="E103">
-        <v>0.1127106027407364</v>
+        <v>0.1219655988266991</v>
       </c>
       <c r="F103">
-        <v>0.7744944019133599</v>
+        <v>0.7560142875880024</v>
       </c>
       <c r="G103">
-        <v>2.0832589900204E-05</v>
+        <v>1.8729848680383E-05</v>
       </c>
       <c r="H103">
-        <v>2.065959991809149E-05</v>
-      </c>
-      <c r="I103">
-        <v>2.50088538775753E-05</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>1.724055965791184E-05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7.221178704150289E-06</v>
+        <v>8.255668382987757E-06</v>
       </c>
       <c r="C104">
-        <v>1.067038276719823E-05</v>
+        <v>1.028868187796244E-05</v>
       </c>
       <c r="D104">
-        <v>0.1127106027407364</v>
+        <v>0.1219655988266991</v>
       </c>
       <c r="E104">
-        <v>0.1127106027407364</v>
+        <v>0.1219655988266991</v>
       </c>
       <c r="F104">
-        <v>0.7744944019133599</v>
+        <v>0.7560142875880024</v>
       </c>
       <c r="G104">
-        <v>2.0832589900204E-05</v>
+        <v>1.8729848680383E-05</v>
       </c>
       <c r="H104">
-        <v>2.065959991809149E-05</v>
-      </c>
-      <c r="I104">
-        <v>2.50088538775753E-05</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>1.724055965791184E-05</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.2083055963021588</v>
+        <v>0.2563330902215147</v>
       </c>
       <c r="C105">
-        <v>0.2104022578538372</v>
+        <v>0.2589131783897488</v>
       </c>
       <c r="D105">
-        <v>0.09876794468934863</v>
+        <v>0.1204465246475268</v>
       </c>
       <c r="E105">
-        <v>0.04938440445065141</v>
+        <v>0.06022371399484328</v>
       </c>
       <c r="F105">
-        <v>0.003293145977271732</v>
+        <v>0.004349822446631156</v>
       </c>
       <c r="G105">
-        <v>0.0653351042284759</v>
+        <v>0.08907355295485732</v>
       </c>
       <c r="H105">
-        <v>0.1711902491235123</v>
-      </c>
-      <c r="I105">
-        <v>0.193321297374744</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.2106601173448781</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>8.328425103706326E-06</v>
+        <v>5.946330771976723E-06</v>
       </c>
       <c r="C106">
-        <v>9.000949034197476E-06</v>
+        <v>7.726718433311548E-06</v>
       </c>
       <c r="D106">
-        <v>0.3266359052330684</v>
+        <v>0.3267116157690066</v>
       </c>
       <c r="E106">
-        <v>0.3266359052330684</v>
+        <v>0.3267116157690066</v>
       </c>
       <c r="F106">
-        <v>0.3466858116481768</v>
+        <v>0.3465522908962455</v>
       </c>
       <c r="G106">
-        <v>6.378195177168231E-06</v>
+        <v>5.894845210072467E-06</v>
       </c>
       <c r="H106">
-        <v>6.717822376800013E-06</v>
-      </c>
-      <c r="I106">
-        <v>1.195249399462458E-05</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>4.909671326095331E-06</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.1881375826828429</v>
+        <v>0.3046187709857018</v>
       </c>
       <c r="C107">
-        <v>0.1793052359379589</v>
+        <v>0.2486330198562383</v>
       </c>
       <c r="D107">
-        <v>0.1344247216963431</v>
+        <v>0.1791226714806405</v>
       </c>
       <c r="E107">
-        <v>0.00953234114305381</v>
+        <v>0.01267633477318013</v>
       </c>
       <c r="F107">
-        <v>0.001756363022329765</v>
+        <v>0.002748409093542181</v>
       </c>
       <c r="G107">
-        <v>0.07826131599730152</v>
+        <v>0.1249678065959185</v>
       </c>
       <c r="H107">
-        <v>0.08709464745069427</v>
-      </c>
-      <c r="I107">
-        <v>0.3214877920694758</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.1272329872147787</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.106299193038054E-05</v>
+        <v>1.047591391549254E-05</v>
       </c>
       <c r="C108">
-        <v>4.694536440003641E-06</v>
+        <v>4.528541723886244E-06</v>
       </c>
       <c r="D108">
-        <v>0.1109092239135662</v>
+        <v>0.1200254999572644</v>
       </c>
       <c r="E108">
-        <v>0.1109092239135662</v>
+        <v>0.1200254999572644</v>
       </c>
       <c r="F108">
-        <v>0.778112752815163</v>
+        <v>0.7598975485017202</v>
       </c>
       <c r="G108">
-        <v>2.092991742157287E-05</v>
+        <v>1.882605438772807E-05</v>
       </c>
       <c r="H108">
-        <v>2.11090286595941E-05</v>
-      </c>
-      <c r="I108">
-        <v>1.100288325287802E-05</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>1.762107372390454E-05</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.3259087379137244</v>
+        <v>0.4617866940942638</v>
       </c>
       <c r="C109">
-        <v>0.07517480367002728</v>
+        <v>0.1162520753316399</v>
       </c>
       <c r="D109">
-        <v>0.1028698037000225</v>
+        <v>0.1460816013277206</v>
       </c>
       <c r="E109">
-        <v>0.003473098866860207</v>
+        <v>0.005706815480981344</v>
       </c>
       <c r="F109">
-        <v>0.0006287164811253253</v>
+        <v>0.001017435705830218</v>
       </c>
       <c r="G109">
-        <v>0.08773234317902902</v>
+        <v>0.1366316156716119</v>
       </c>
       <c r="H109">
-        <v>0.08652424652218747</v>
-      </c>
-      <c r="I109">
-        <v>0.3176882496670239</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.1325237623879522</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.4069966804235667</v>
+        <v>0.4247797601251149</v>
       </c>
       <c r="C110">
-        <v>0.1624727387282001</v>
+        <v>0.1671396931283645</v>
       </c>
       <c r="D110">
-        <v>0.09351650158991529</v>
+        <v>0.1161038771985412</v>
       </c>
       <c r="E110">
-        <v>0.01745050410126063</v>
+        <v>0.01816299987395184</v>
       </c>
       <c r="F110">
-        <v>0.003724064766521338</v>
+        <v>0.003399714231523293</v>
       </c>
       <c r="G110">
-        <v>0.06420964068596742</v>
+        <v>0.0592804446167625</v>
       </c>
       <c r="H110">
-        <v>0.1855974605635004</v>
-      </c>
-      <c r="I110">
-        <v>0.06603240914106824</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.2111335108257418</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.1618619450484037</v>
+        <v>0.2078418517461183</v>
       </c>
       <c r="C111">
-        <v>0.2332505519008498</v>
+        <v>0.2528973757056155</v>
       </c>
       <c r="D111">
-        <v>0.13927938804476</v>
+        <v>0.1472601106835663</v>
       </c>
       <c r="E111">
-        <v>0.03482030401968263</v>
+        <v>0.03681544183839974</v>
       </c>
       <c r="F111">
-        <v>0.001776490948142397</v>
+        <v>0.002173283294950963</v>
       </c>
       <c r="G111">
-        <v>0.1461641599433706</v>
+        <v>0.164086079099111</v>
       </c>
       <c r="H111">
-        <v>0.1503146417643447</v>
-      </c>
-      <c r="I111">
-        <v>0.1325325183304462</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.1889258576322382</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6.424864364126461E-06</v>
+        <v>6.853418051302143E-06</v>
       </c>
       <c r="C112">
-        <v>7.527111815411249E-06</v>
+        <v>8.029194896197815E-06</v>
       </c>
       <c r="D112">
-        <v>0.4433513618151015</v>
+        <v>0.441073274276124</v>
       </c>
       <c r="E112">
-        <v>0.4433513618151015</v>
+        <v>0.441073274276124</v>
       </c>
       <c r="F112">
-        <v>0.113237138124503</v>
+        <v>0.1177993503503292</v>
       </c>
       <c r="G112">
-        <v>2.435883522930129E-05</v>
+        <v>2.873795565839909E-05</v>
       </c>
       <c r="H112">
-        <v>9.825140936429683E-06</v>
-      </c>
-      <c r="I112">
-        <v>1.200229294880504E-05</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>1.048052881702095E-05</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.1769542856333911</v>
+        <v>0.2260326215699421</v>
       </c>
       <c r="C113">
-        <v>0.2325364836751845</v>
+        <v>0.2682684282913659</v>
       </c>
       <c r="D113">
-        <v>0.07599884106461427</v>
+        <v>0.08007501818793407</v>
       </c>
       <c r="E113">
-        <v>0.03039967322334923</v>
+        <v>0.03203012738740063</v>
       </c>
       <c r="F113">
-        <v>0.001981524138942299</v>
+        <v>0.002417308796575193</v>
       </c>
       <c r="G113">
-        <v>0.17848795446984</v>
+        <v>0.1993593126903356</v>
       </c>
       <c r="H113">
-        <v>0.1539323691624846</v>
-      </c>
-      <c r="I113">
-        <v>0.149708868632194</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.1918171830764465</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.2119059646416426</v>
+        <v>0.2593511705387711</v>
       </c>
       <c r="C114">
-        <v>0.1940784099544108</v>
+        <v>0.2375319614167752</v>
       </c>
       <c r="D114">
-        <v>0.103976454256449</v>
+        <v>0.1257068455319654</v>
       </c>
       <c r="E114">
-        <v>0.05198868202123158</v>
+        <v>0.06285389416311796</v>
       </c>
       <c r="F114">
-        <v>0.003432735234644941</v>
+        <v>0.004508786008164226</v>
       </c>
       <c r="G114">
-        <v>0.06807045908664539</v>
+        <v>0.09230011048207397</v>
       </c>
       <c r="H114">
-        <v>0.1779131283170938</v>
-      </c>
-      <c r="I114">
-        <v>0.1886341664878819</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.2177472318591322</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.198985037738118</v>
+        <v>0.2458278354830833</v>
       </c>
       <c r="C115">
-        <v>0.202170875478023</v>
+        <v>0.2497636668654201</v>
       </c>
       <c r="D115">
-        <v>0.108311948716918</v>
+        <v>0.1321801180049726</v>
       </c>
       <c r="E115">
-        <v>0.05415644821908838</v>
+        <v>0.06609055467421129</v>
       </c>
       <c r="F115">
-        <v>0.003663045288079783</v>
+        <v>0.004866612519813743</v>
       </c>
       <c r="G115">
-        <v>0.07090878532532659</v>
+        <v>0.09705310354271385</v>
       </c>
       <c r="H115">
-        <v>0.1653042352274251</v>
-      </c>
-      <c r="I115">
-        <v>0.1964996240070212</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.2042181089097849</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>4.692749472308188E-06</v>
+        <v>4.974412463918213E-06</v>
       </c>
       <c r="C116">
-        <v>4.659820522327653E-06</v>
+        <v>4.939506925686801E-06</v>
       </c>
       <c r="D116">
-        <v>0.3718612511241428</v>
+        <v>0.3741133081050583</v>
       </c>
       <c r="E116">
-        <v>0.3718612511241428</v>
+        <v>0.3741133081050583</v>
       </c>
       <c r="F116">
-        <v>0.256235160721419</v>
+        <v>0.2517348550113728</v>
       </c>
       <c r="G116">
-        <v>1.900307361016517E-05</v>
+        <v>2.231985110564093E-05</v>
       </c>
       <c r="H116">
-        <v>5.93856234873804E-06</v>
-      </c>
-      <c r="I116">
-        <v>8.042824341865587E-06</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>6.295008015371058E-06</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>4.600827403398701E-06</v>
+        <v>4.974412463918213E-06</v>
       </c>
       <c r="C117">
-        <v>4.568543469144466E-06</v>
+        <v>4.939506925686801E-06</v>
       </c>
       <c r="D117">
-        <v>0.3743715207841872</v>
+        <v>0.3741133081050583</v>
       </c>
       <c r="E117">
-        <v>0.3743715207841872</v>
+        <v>0.3741133081050583</v>
       </c>
       <c r="F117">
-        <v>0.2512159995154229</v>
+        <v>0.2517348550113728</v>
       </c>
       <c r="G117">
-        <v>1.863083941096202E-05</v>
+        <v>2.231985110564093E-05</v>
       </c>
       <c r="H117">
-        <v>5.822237166525513E-06</v>
-      </c>
-      <c r="I117">
-        <v>7.336468752697997E-06</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>6.295008015371058E-06</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.201986488450983</v>
+        <v>0.2480896435658246</v>
       </c>
       <c r="C118">
-        <v>0.2047712703131556</v>
+        <v>0.2515100655189382</v>
       </c>
       <c r="D118">
-        <v>0.1104102533907474</v>
+        <v>0.1336361879520762</v>
       </c>
       <c r="E118">
-        <v>0.05520560973600568</v>
+        <v>0.06681859510798444</v>
       </c>
       <c r="F118">
-        <v>0.00376838514155673</v>
+        <v>0.004982412182704848</v>
       </c>
       <c r="G118">
-        <v>0.07052349309950226</v>
+        <v>0.09573141464573824</v>
       </c>
       <c r="H118">
-        <v>0.1622080891164566</v>
-      </c>
-      <c r="I118">
-        <v>0.1911264107515926</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.1992316810267334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.2000988888138151</v>
+        <v>0.2467703514064429</v>
       </c>
       <c r="C119">
-        <v>0.2087203333316843</v>
+        <v>0.2574027323336386</v>
       </c>
       <c r="D119">
-        <v>0.1119537875268621</v>
+        <v>0.1360553139211105</v>
       </c>
       <c r="E119">
-        <v>0.05597738355696576</v>
+        <v>0.06802816716415591</v>
       </c>
       <c r="F119">
-        <v>0.003857149823668718</v>
+        <v>0.005124520364366669</v>
       </c>
       <c r="G119">
-        <v>0.06717152353017075</v>
+        <v>0.0924962150485895</v>
       </c>
       <c r="H119">
-        <v>0.1574086040331545</v>
-      </c>
-      <c r="I119">
-        <v>0.1948123293836788</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.1941226997616959</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.5370006207342528</v>
+        <v>0.5608445217627719</v>
       </c>
       <c r="C120">
-        <v>0.05102168384521779</v>
+        <v>0.03189994492362905</v>
       </c>
       <c r="D120">
-        <v>0.00830543901634662</v>
+        <v>0.007710982540841033</v>
       </c>
       <c r="E120">
-        <v>0.00830543901634662</v>
+        <v>0.007710982540841033</v>
       </c>
       <c r="F120">
-        <v>0.001813634815984098</v>
+        <v>0.001569567842129249</v>
       </c>
       <c r="G120">
-        <v>0.03049900123926817</v>
+        <v>0.02794261041200328</v>
       </c>
       <c r="H120">
-        <v>0.3423259636763558</v>
-      </c>
-      <c r="I120">
-        <v>0.02072821765622796</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.3623213899777845</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.3237827027072207</v>
+        <v>0.4469048511286613</v>
       </c>
       <c r="C121">
-        <v>0.06154391128873678</v>
+        <v>0.09136447055715097</v>
       </c>
       <c r="D121">
-        <v>0.1103022151293652</v>
+        <v>0.1522892791394027</v>
       </c>
       <c r="E121">
-        <v>0.003171281704727247</v>
+        <v>0.00502087588394052</v>
       </c>
       <c r="F121">
-        <v>0.0006233547935219821</v>
+        <v>0.0009826559756630287</v>
       </c>
       <c r="G121">
-        <v>0.1010581557275657</v>
+        <v>0.1557790978055493</v>
       </c>
       <c r="H121">
-        <v>0.09785545836450839</v>
-      </c>
-      <c r="I121">
-        <v>0.301662920284354</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.1476587695096321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.3333410815884438</v>
+        <v>0.4044239883029533</v>
       </c>
       <c r="C122">
-        <v>0.1018527574216329</v>
+        <v>0.110314502355891</v>
       </c>
       <c r="D122">
-        <v>0.1655209658635465</v>
+        <v>0.1746440019213313</v>
       </c>
       <c r="E122">
-        <v>0.005045770767533066</v>
+        <v>0.005796494249901302</v>
       </c>
       <c r="F122">
-        <v>0.001046824439299479</v>
+        <v>0.001123139363303124</v>
       </c>
       <c r="G122">
-        <v>0.1268900031231534</v>
+        <v>0.1482854831544867</v>
       </c>
       <c r="H122">
-        <v>0.1263484959379644</v>
-      </c>
-      <c r="I122">
-        <v>0.1399541008584264</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.1554123906521334</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1550646769440343</v>
+        <v>0.1980861329845774</v>
       </c>
       <c r="C123">
-        <v>0.2596937778370475</v>
+        <v>0.313113103599538</v>
       </c>
       <c r="D123">
-        <v>0.07553341194042497</v>
+        <v>0.08164450267083966</v>
       </c>
       <c r="E123">
-        <v>0.03021350073590361</v>
+        <v>0.0326579235347837</v>
       </c>
       <c r="F123">
-        <v>0.001965258791368015</v>
+        <v>0.002456244870095875</v>
       </c>
       <c r="G123">
-        <v>0.1842936547571992</v>
+        <v>0.2018699546564922</v>
       </c>
       <c r="H123">
-        <v>0.1359344663679318</v>
-      </c>
-      <c r="I123">
-        <v>0.1573012526260905</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.1701721376836734</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.1847503553450305</v>
+        <v>0.2286410672774846</v>
       </c>
       <c r="C124">
-        <v>0.2058758811422883</v>
+        <v>0.2547854531634851</v>
       </c>
       <c r="D124">
-        <v>0.126610834831096</v>
+        <v>0.1537624092122392</v>
       </c>
       <c r="E124">
-        <v>0.06330597133310362</v>
+        <v>0.07688178121082963</v>
       </c>
       <c r="F124">
-        <v>0.00423548422273865</v>
+        <v>0.005647887725459225</v>
       </c>
       <c r="G124">
-        <v>0.07054645506193795</v>
+        <v>0.09813579699082747</v>
       </c>
       <c r="H124">
-        <v>0.1471804399811542</v>
-      </c>
-      <c r="I124">
-        <v>0.1974945780826507</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.1821456044196746</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.5674792620518513</v>
+        <v>0.67530163315801</v>
       </c>
       <c r="C125">
-        <v>0.09029808626290059</v>
+        <v>0.08864417831066194</v>
       </c>
       <c r="D125">
-        <v>0.03779279810264899</v>
+        <v>0.03502677658151028</v>
       </c>
       <c r="E125">
-        <v>0.03779279810264899</v>
+        <v>0.03502677658151028</v>
       </c>
       <c r="F125">
-        <v>0.05817208740497531</v>
+        <v>0.05776119828792003</v>
       </c>
       <c r="G125">
-        <v>0.05351234549534008</v>
+        <v>0.05614463844702684</v>
       </c>
       <c r="H125">
-        <v>0.06165793046031046</v>
-      </c>
-      <c r="I125">
-        <v>0.09329469211932434</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.05209479863336072</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.123580779889854</v>
+        <v>0.159321763534173</v>
       </c>
       <c r="C126">
-        <v>0.3188935106468476</v>
+        <v>0.403198109558735</v>
       </c>
       <c r="D126">
-        <v>0.08377558256306374</v>
+        <v>0.1094839115560939</v>
       </c>
       <c r="E126">
-        <v>0.02090960531816535</v>
+        <v>0.02600124368689777</v>
       </c>
       <c r="F126">
-        <v>0.004392196335979735</v>
+        <v>0.00626323538557775</v>
       </c>
       <c r="G126">
-        <v>0.09996531496075262</v>
+        <v>0.1398016480632445</v>
       </c>
       <c r="H126">
-        <v>0.1119382022116882</v>
-      </c>
-      <c r="I126">
-        <v>0.2365448080736488</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.1559300882152783</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>2.796446057150806E-06</v>
+        <v>2.971531909272824E-06</v>
       </c>
       <c r="C127">
-        <v>3.239374589658101E-06</v>
+        <v>3.442194280981496E-06</v>
       </c>
       <c r="D127">
-        <v>0.4031169789126114</v>
+        <v>0.404586566917314</v>
       </c>
       <c r="E127">
-        <v>0.4031169789126114</v>
+        <v>0.404586566917314</v>
       </c>
       <c r="F127">
-        <v>0.1937368042638788</v>
+        <v>0.1907992759228504</v>
       </c>
       <c r="G127">
-        <v>1.483503536548014E-05</v>
+        <v>1.757871437090345E-05</v>
       </c>
       <c r="H127">
-        <v>3.385812952325584E-06</v>
-      </c>
-      <c r="I127">
-        <v>4.981241933633872E-06</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>3.597801960333078E-06</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.2409569414463133</v>
+        <v>0.2804275435139816</v>
       </c>
       <c r="C128">
-        <v>0.294123199941259</v>
+        <v>0.3090505649418042</v>
       </c>
       <c r="D128">
-        <v>0.04470982707255586</v>
+        <v>0.05500066144018646</v>
       </c>
       <c r="E128">
-        <v>0.02186210906768764</v>
+        <v>0.02675486528933097</v>
       </c>
       <c r="F128">
-        <v>0.003994995808237475</v>
+        <v>0.004355321485546695</v>
       </c>
       <c r="G128">
-        <v>0.1049160589739814</v>
+        <v>0.11557636227857</v>
       </c>
       <c r="H128">
-        <v>0.1648529285306705</v>
-      </c>
-      <c r="I128">
-        <v>0.1245839391592948</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.20883468105058</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.1517916569489184</v>
+        <v>0.2000503626694382</v>
       </c>
       <c r="C129">
-        <v>0.2759575172113525</v>
+        <v>0.3379243041908669</v>
       </c>
       <c r="D129">
-        <v>0.08042746608132559</v>
+        <v>0.08854957556390342</v>
       </c>
       <c r="E129">
-        <v>0.03217113120153488</v>
+        <v>0.03541996304959266</v>
       </c>
       <c r="F129">
-        <v>0.00221771171560352</v>
+        <v>0.002843047432677792</v>
       </c>
       <c r="G129">
-        <v>0.1363969329306651</v>
+        <v>0.1515284978853044</v>
       </c>
       <c r="H129">
-        <v>0.1444880753036759</v>
-      </c>
-      <c r="I129">
-        <v>0.1765495086069241</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.1836842492082166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.2818017128432947</v>
+        <v>0.3560805439141708</v>
       </c>
       <c r="C130">
-        <v>0.2393768768663091</v>
+        <v>0.3120430054340833</v>
       </c>
       <c r="D130">
-        <v>0.08966547195647971</v>
+        <v>0.1048187705224509</v>
       </c>
       <c r="E130">
-        <v>0.01759487109609887</v>
+        <v>0.02314459128597772</v>
       </c>
       <c r="F130">
-        <v>0.004719969491269325</v>
+        <v>0.00616154724291974</v>
       </c>
       <c r="G130">
-        <v>0.07195434087527545</v>
+        <v>0.09073655362898181</v>
       </c>
       <c r="H130">
-        <v>0.08720119581195614</v>
-      </c>
-      <c r="I130">
-        <v>0.2076855610593167</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.1070149879714157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>3.481976811478393E-06</v>
+        <v>3.474160631744252E-06</v>
       </c>
       <c r="C131">
-        <v>1.806633571336014E-06</v>
+        <v>1.836291280260187E-06</v>
       </c>
       <c r="D131">
-        <v>0.2839694991689511</v>
+        <v>0.277705490185797</v>
       </c>
       <c r="E131">
-        <v>0.2839694991689511</v>
+        <v>0.277705490185797</v>
       </c>
       <c r="F131">
-        <v>0.43203350507104</v>
+        <v>0.444566751095029</v>
       </c>
       <c r="G131">
-        <v>1.162097080631904E-05</v>
+        <v>1.101390292887836E-05</v>
       </c>
       <c r="H131">
-        <v>7.439203483546542E-06</v>
-      </c>
-      <c r="I131">
-        <v>3.147806385125814E-06</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>5.944178535886137E-06</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.1539157709293406</v>
+        <v>0.1980031338079074</v>
       </c>
       <c r="C132">
-        <v>0.2801162024707746</v>
+        <v>0.3371207854943223</v>
       </c>
       <c r="D132">
-        <v>0.08775140800995816</v>
+        <v>0.09565471725824891</v>
       </c>
       <c r="E132">
-        <v>0.03510072115604383</v>
+        <v>0.03826203038501675</v>
       </c>
       <c r="F132">
-        <v>0.002579379431920799</v>
+        <v>0.003209495744303509</v>
       </c>
       <c r="G132">
-        <v>0.1253808251815262</v>
+        <v>0.1376805675637723</v>
       </c>
       <c r="H132">
-        <v>0.1518865417325383</v>
-      </c>
-      <c r="I132">
-        <v>0.1632691510878976</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.1900692697464288</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>2.666349392545448E-06</v>
+        <v>2.805307349477034E-06</v>
       </c>
       <c r="C133">
-        <v>2.990183657798486E-06</v>
+        <v>3.146019798037287E-06</v>
       </c>
       <c r="D133">
-        <v>0.4076240252041461</v>
+        <v>0.4099241064514748</v>
       </c>
       <c r="E133">
-        <v>0.4076240252041461</v>
+        <v>0.4099241064514748</v>
       </c>
       <c r="F133">
-        <v>0.1847237528654508</v>
+        <v>0.1801261528947378</v>
       </c>
       <c r="G133">
-        <v>1.555703742710593E-05</v>
+        <v>1.659537845283336E-05</v>
       </c>
       <c r="H133">
-        <v>2.934559704364954E-06</v>
-      </c>
-      <c r="I133">
-        <v>4.048596075174124E-06</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>3.087496712339674E-06</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.2526293821232909</v>
+        <v>0.3039098503840435</v>
       </c>
       <c r="C134">
-        <v>0.2931313521363812</v>
+        <v>0.3145533611730786</v>
       </c>
       <c r="D134">
-        <v>0.04666939043038474</v>
+        <v>0.0586330873210394</v>
       </c>
       <c r="E134">
-        <v>0.02282029188025763</v>
+        <v>0.02852184522322484</v>
       </c>
       <c r="F134">
-        <v>0.004524073050542614</v>
+        <v>0.005014227860714665</v>
       </c>
       <c r="G134">
-        <v>0.07134487396056413</v>
+        <v>0.07753548799079583</v>
       </c>
       <c r="H134">
-        <v>0.1628199915787799</v>
-      </c>
-      <c r="I134">
-        <v>0.1460606448397987</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.2118321400471032</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.1886890688156712</v>
+        <v>0.2274643594211547</v>
       </c>
       <c r="C135">
-        <v>0.2175788591193235</v>
+        <v>0.2622911057588563</v>
       </c>
       <c r="D135">
-        <v>0.1419205190453484</v>
+        <v>0.1657595676960411</v>
       </c>
       <c r="E135">
-        <v>0.04730739159169297</v>
+        <v>0.05525374176114336</v>
       </c>
       <c r="F135">
-        <v>0.005624488900458652</v>
+        <v>0.007401754059046369</v>
       </c>
       <c r="G135">
-        <v>0.0747167711823707</v>
+        <v>0.1008396801758478</v>
       </c>
       <c r="H135">
-        <v>0.1501370221657994</v>
-      </c>
-      <c r="I135">
-        <v>0.1740258791793351</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.1809897911279104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>8.477415426346274E-06</v>
+        <v>8.191262700871171E-06</v>
       </c>
       <c r="C136">
-        <v>8.893466428868271E-06</v>
+        <v>9.089380152213537E-06</v>
       </c>
       <c r="D136">
-        <v>0.3497989217265137</v>
+        <v>0.3407218065173965</v>
       </c>
       <c r="E136">
-        <v>0.3497989217265137</v>
+        <v>0.3407218065173965</v>
       </c>
       <c r="F136">
-        <v>0.3003611106019675</v>
+        <v>0.3185246614944235</v>
       </c>
       <c r="G136">
-        <v>2.039646730265289E-06</v>
+        <v>2.145930712194912E-06</v>
       </c>
       <c r="H136">
-        <v>1.190063192309858E-05</v>
-      </c>
-      <c r="I136">
-        <v>9.734784496557E-06</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>1.229889721830049E-05</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>2.992102986527024E-06</v>
+        <v>2.622890846718294E-06</v>
       </c>
       <c r="C137">
-        <v>1.337622914385638E-06</v>
+        <v>1.461138772251896E-06</v>
       </c>
       <c r="D137">
-        <v>0.3308548127793426</v>
+        <v>0.3129488220228912</v>
       </c>
       <c r="E137">
-        <v>0.3308548127793426</v>
+        <v>0.3129488220228912</v>
       </c>
       <c r="F137">
-        <v>0.3382718873078194</v>
+        <v>0.3740863608259191</v>
       </c>
       <c r="G137">
-        <v>7.513283493340411E-06</v>
+        <v>7.499822749149076E-06</v>
       </c>
       <c r="H137">
-        <v>5.139920459200341E-06</v>
-      </c>
-      <c r="I137">
-        <v>1.504203641877E-06</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>4.411275930403716E-06</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.1161836009088896</v>
+        <v>0.141753312351979</v>
       </c>
       <c r="C138">
-        <v>0.3398245263199099</v>
+        <v>0.4231914226545292</v>
       </c>
       <c r="D138">
-        <v>0.1363876444540774</v>
+        <v>0.1565221131969818</v>
       </c>
       <c r="E138">
-        <v>0.01258106228404706</v>
+        <v>0.0160707615604537</v>
       </c>
       <c r="F138">
-        <v>0.003085587911841476</v>
+        <v>0.003968836868172679</v>
       </c>
       <c r="G138">
-        <v>0.101191344522365</v>
+        <v>0.1301863148508171</v>
       </c>
       <c r="H138">
-        <v>0.1088418562680667</v>
-      </c>
-      <c r="I138">
-        <v>0.1819043773308028</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.1283072385170666</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7.561726805236857E-06</v>
+        <v>7.696864737845099E-06</v>
       </c>
       <c r="C139">
-        <v>8.048598254593503E-06</v>
+        <v>8.674314597342296E-06</v>
       </c>
       <c r="D139">
-        <v>0.3660243122565853</v>
+        <v>0.3503357215936611</v>
       </c>
       <c r="E139">
-        <v>0.3660243122565853</v>
+        <v>0.3503357215936611</v>
       </c>
       <c r="F139">
-        <v>0.2679175842003661</v>
+        <v>0.2992995493759141</v>
       </c>
       <c r="G139">
-        <v>1.754302328406642E-06</v>
+        <v>1.931685839418911E-06</v>
       </c>
       <c r="H139">
-        <v>9.800704681423263E-06</v>
-      </c>
-      <c r="I139">
-        <v>6.625954393599647E-06</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>1.0704571589111E-05</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.5989647039588099</v>
+        <v>0.7054166291561914</v>
       </c>
       <c r="C140">
-        <v>0.07329460907909822</v>
+        <v>0.06943554042401738</v>
       </c>
       <c r="D140">
-        <v>0.04961162245037629</v>
+        <v>0.0332270489592006</v>
       </c>
       <c r="E140">
-        <v>0.04961162245037629</v>
+        <v>0.0332270489592006</v>
       </c>
       <c r="F140">
-        <v>0.05551019201086502</v>
+        <v>0.05371395515030897</v>
       </c>
       <c r="G140">
-        <v>0.04837117873956134</v>
+        <v>0.04909888495321055</v>
       </c>
       <c r="H140">
-        <v>0.0673754203093526</v>
-      </c>
-      <c r="I140">
-        <v>0.05726065100156041</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.05588089239787045</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6.314798391873177E-06</v>
+        <v>5.431421084892615E-06</v>
       </c>
       <c r="C141">
-        <v>7.58996527996308E-06</v>
+        <v>8.688609343542943E-06</v>
       </c>
       <c r="D141">
-        <v>0.254403012227754</v>
+        <v>0.2253395650663999</v>
       </c>
       <c r="E141">
-        <v>0.254403012227754</v>
+        <v>0.2253395650663999</v>
       </c>
       <c r="F141">
-        <v>0.4911583322760291</v>
+        <v>0.5492909558736158</v>
       </c>
       <c r="G141">
-        <v>6.354644027846743E-06</v>
+        <v>6.731481238165624E-06</v>
       </c>
       <c r="H141">
-        <v>1.169287756806288E-05</v>
-      </c>
-      <c r="I141">
-        <v>3.690983195299393E-06</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>9.062481917919013E-06</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>2.446405858306033E-06</v>
+        <v>2.248729467248349E-06</v>
       </c>
       <c r="C142">
-        <v>1.105950808907992E-06</v>
+        <v>1.26677250755064E-06</v>
       </c>
       <c r="D142">
-        <v>0.3601512718304722</v>
+        <v>0.3378319616692551</v>
       </c>
       <c r="E142">
-        <v>0.3601512718304722</v>
+        <v>0.3378319616692551</v>
       </c>
       <c r="F142">
-        <v>0.2796842543406513</v>
+        <v>0.3243239631603226</v>
       </c>
       <c r="G142">
-        <v>5.545334589687112E-06</v>
+        <v>5.745983221876352E-06</v>
       </c>
       <c r="H142">
-        <v>3.172509324183815E-06</v>
-      </c>
-      <c r="I142">
-        <v>9.317978231762728E-07</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>2.852015970461506E-06</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.757017534434321E-06</v>
+        <v>1.998100896246511E-06</v>
       </c>
       <c r="C143">
-        <v>1.778038040360063E-06</v>
+        <v>2.022005745778237E-06</v>
       </c>
       <c r="D143">
-        <v>0.4350627917792354</v>
+        <v>0.4315581271541744</v>
       </c>
       <c r="E143">
-        <v>0.4350627917792354</v>
+        <v>0.4315581271541744</v>
       </c>
       <c r="F143">
-        <v>0.1298585205670188</v>
+        <v>0.1368681854311432</v>
       </c>
       <c r="G143">
-        <v>8.864819046661633E-06</v>
+        <v>9.614310635955428E-06</v>
       </c>
       <c r="H143">
-        <v>1.69347842076565E-06</v>
-      </c>
-      <c r="I143">
-        <v>1.802521468229774E-06</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>1.925843230214948E-06</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.2499279516090339</v>
+        <v>0.3074402337329604</v>
       </c>
       <c r="C144">
-        <v>0.3290443444230436</v>
+        <v>0.3693184344131636</v>
       </c>
       <c r="D144">
-        <v>0.04244180509989409</v>
+        <v>0.05404103694324154</v>
       </c>
       <c r="E144">
-        <v>0.02100700044998617</v>
+        <v>0.02668769986448024</v>
       </c>
       <c r="F144">
-        <v>0.004600055252426048</v>
+        <v>0.005198903931958724</v>
       </c>
       <c r="G144">
-        <v>0.07509601992618312</v>
+        <v>0.08340723147976498</v>
       </c>
       <c r="H144">
-        <v>0.1233580109333143</v>
-      </c>
-      <c r="I144">
-        <v>0.1545248123061189</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.1539064596344305</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.1843072528825035</v>
+        <v>0.2213127285569444</v>
       </c>
       <c r="C145">
-        <v>0.2052164175379376</v>
+        <v>0.2464201574517492</v>
       </c>
       <c r="D145">
-        <v>0.1700999011501446</v>
+        <v>0.1959189945530629</v>
       </c>
       <c r="E145">
-        <v>0.05670062854580506</v>
+        <v>0.06530698457773751</v>
       </c>
       <c r="F145">
-        <v>0.006381444006162573</v>
+        <v>0.008370779234632527</v>
       </c>
       <c r="G145">
-        <v>0.07431558582986648</v>
+        <v>0.09851390742134215</v>
       </c>
       <c r="H145">
-        <v>0.1367081321351024</v>
-      </c>
-      <c r="I145">
-        <v>0.1662706379124778</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.1641564482045313</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>9.711970598975326E-07</v>
+        <v>1.086764306389451E-06</v>
       </c>
       <c r="C146">
-        <v>1.084599314320591E-06</v>
+        <v>1.213661268799136E-06</v>
       </c>
       <c r="D146">
-        <v>0.4385883128476092</v>
+        <v>0.436310116283552</v>
       </c>
       <c r="E146">
-        <v>0.4385883128476092</v>
+        <v>0.436310116283552</v>
       </c>
       <c r="F146">
-        <v>0.122808683611097</v>
+        <v>0.1273655899560718</v>
       </c>
       <c r="G146">
-        <v>1.050234502722733E-05</v>
+        <v>1.07211092626895E-05</v>
       </c>
       <c r="H146">
-        <v>1.033018131382155E-06</v>
-      </c>
-      <c r="I146">
-        <v>1.099534151752037E-06</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>1.155941986401875E-06</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5.446657175068112E-06</v>
+        <v>5.367749010154024E-06</v>
       </c>
       <c r="C147">
-        <v>4.996610780578075E-06</v>
+        <v>5.134090362515952E-06</v>
       </c>
       <c r="D147">
-        <v>0.3910177522785882</v>
+        <v>0.3819646410576358</v>
       </c>
       <c r="E147">
-        <v>0.3910177522785882</v>
+        <v>0.3819646410576358</v>
       </c>
       <c r="F147">
-        <v>0.2179418083021117</v>
+        <v>0.2360526678101294</v>
       </c>
       <c r="G147">
-        <v>1.347238867638642E-06</v>
+        <v>1.424289315158075E-06</v>
       </c>
       <c r="H147">
-        <v>5.789653708842246E-06</v>
-      </c>
-      <c r="I147">
-        <v>5.10698017976297E-06</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>6.12394591109865E-06</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.2179037480586672</v>
+        <v>0.2532147612452861</v>
       </c>
       <c r="C148">
-        <v>0.3200392679288847</v>
+        <v>0.3589845756177423</v>
       </c>
       <c r="D148">
-        <v>0.1249880823765817</v>
+        <v>0.1342357041924704</v>
       </c>
       <c r="E148">
-        <v>0.02651269889874056</v>
+        <v>0.0329752475624765</v>
       </c>
       <c r="F148">
-        <v>0.009019806735424477</v>
+        <v>0.01012013232489396</v>
       </c>
       <c r="G148">
-        <v>0.05090814586696361</v>
+        <v>0.0605222206497129</v>
       </c>
       <c r="H148">
-        <v>0.1289077667468375</v>
-      </c>
-      <c r="I148">
-        <v>0.1217204833879003</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.1499473584074178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.1746600528009212</v>
+        <v>0.2130938023110984</v>
       </c>
       <c r="C149">
-        <v>0.3062580712989229</v>
+        <v>0.3734948381343345</v>
       </c>
       <c r="D149">
-        <v>0.05566109567622762</v>
+        <v>0.06552309491217544</v>
       </c>
       <c r="E149">
-        <v>0.0156540238301614</v>
+        <v>0.01842757948747478</v>
       </c>
       <c r="F149">
-        <v>0.001458760766272076</v>
+        <v>0.001902682314591443</v>
       </c>
       <c r="G149">
-        <v>0.1125141301179807</v>
+        <v>0.13828966031654</v>
       </c>
       <c r="H149">
-        <v>0.1576052141115983</v>
-      </c>
-      <c r="I149">
-        <v>0.1761886513979158</v>
+        <v>0.1892683425237854</v>
       </c>
     </row>
   </sheetData>
